--- a/data/hotels_by_city/Dallas/Dallas_shard_96.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_96.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="274">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>danaelsner3</t>
+  </si>
+  <si>
     <t>06/04/2018</t>
   </si>
   <si>
@@ -216,6 +219,9 @@
     <t>I rarely write a bad review but this place was a big disappointment. We had to wait at check in for a clean room (almost 5pm). Exiting the elevator, it smelled like barf. Thank God our room, which was close to the elevator, did not smell like that. But the smell was there all night and the next morning. The floor in the room was not clean. The checkout receipt included a $1.50 safe fee.. really  for a room that was 100+/night. And the lady, at check out, well can we all just act we like our job. To the owners or management, you have a nice facility. Get some good employees or treat them right or something. And please do not nickle and dime customers.More</t>
   </si>
   <si>
+    <t>Diane H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r382976606-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -237,6 +243,9 @@
     <t>The Comfort Inn is in an easy to access area, although a little too close to the highway. You can hear road noise from the room. Staff was helpful when I had a complaint. The rooms however are NOT all non-smoking as their advertising indicates. The first room I was directed to had clearly been smoked in recently. You could also smell smoke in the hallway of the entire 3rd floor. I was disappointed since everywhere in the hotel I saw signs proclaiming it is a "non-smoking facility".  And you are required to sign a statement which says you will be held responsible if you smoke in any of the rooms. I immediately returned to the front desk and was given a room on a lower floor which was clean and smoke free. It was however on the very end of the building next to a stairway and I heard traffic noise as well as children running up and down the stairs very loudly. I will choose not to stop at this same hotel on my travels through again.More</t>
   </si>
   <si>
+    <t>Ian P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r380417423-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -258,6 +267,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>wildjourne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r367454447-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -273,6 +285,9 @@
     <t xml:space="preserve">Almost all of the Comfort Suites I've been to have been a great value for my family of 5. We always get two queen beds and the rooms always have a sleeper sofa. The rooms were clean and the breakfast was good. Great staff too.This one stands of for an awesome pool area.  The mural on the wall of sea life is great.  This hotel is also nice and close to a lot of area attractions.  </t>
   </si>
   <si>
+    <t>Vision293</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r365621192-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -291,6 +306,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Karen W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r365119189-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -306,6 +324,9 @@
     <t>The room was clean, but the pull out couch mattress was disgusting.   It was stained and looked uncomfortable.   We were there with other families and they all said the same about the pull out couch.   Staff was friendly, but many didn't speak any English...at all.   I realize that traffic can't be controlled but the location right on a major expressway made for lots of traffic noise.</t>
   </si>
   <si>
+    <t>Pbkr85</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r355755880-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -321,6 +342,9 @@
     <t>I rented this room strictly for location and indoor pool, you could tell it was a older choice hotel, but was updated, clean, and had friendly staff. Mattress was a little uncomfortable, but would use this hotel again. The young girls really enjoyed the pool.</t>
   </si>
   <si>
+    <t>Jennifer B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r338505458-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -339,6 +363,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Momof2boyz2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r334070260-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -357,6 +384,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Angie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r324030211-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -375,6 +405,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>BrookeM08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r313578111-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -393,6 +426,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Soledad M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r309265082-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -408,6 +444,9 @@
     <t xml:space="preserve">I booked here wanting the great expirence i had all the time when visiting not knowing the 2 diffrent people i spoke with were so rude this hotel is money hungry i had tried too book for 99 but since it was a game weekend it was 189 this is so sad people have to bump price so high and the customer service was so bad i will not return ever i will not recomend and choice hotel corprate will here from me save your money stay in forest hill short drive away a great la quinta with heated indoor pool nice people and great breakfast for 90 </t>
   </si>
   <si>
+    <t>christiehinton</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r288899253-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -426,6 +465,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>RaeJacks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r247864823-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -447,6 +489,9 @@
     <t>My family and I stayed at this hotel over the Christmas holiday. We were in and out of the hotel at different times and the staff that we interacted with were all friendly. There is an indoor heated pool which was nice, the beds were comfortable and the room was very spacious. The breakfast was a hot breakfast with eggs, waffle, meats and juice and coffee. It was a nice stay and I would book at this hotel again. The only cons of the hotel was the fact that a lot of the time there was not anyone at the front desk. I had to go back to my room and call the front desk a couple of times to request additional towels, sheets, or a snack from the snack area. There was another couple that mentioned they did the same thing. Also, parental supervision was not enforced at the pool and there were rowdy teenage boys jumping in and out of the jacuzzi while we were in it. The girl who checked us in was unable to find our Choice Rewards membership (even though we had been at a choice hotel the evening before) and she was unable to run my credit card (which I called the bank and they confirmed it wasn't the card it was her machine)More</t>
   </si>
   <si>
+    <t>Emil O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r239848915-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -465,6 +510,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>KidzAustin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r238309697-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -483,6 +531,9 @@
     <t>My husband and I stayed one night in a King Suite with 2-person hot tub. While the room and hot tub were nice, there were things about the hotel that could have been better. For one thing, the place has only one elevator. We were checking in the Saturday afternoon before a Cowboys game the following day. When we went to bring our bags up, there was a line at the elevator and the person that got off was cleaning staff, which included one person and a large cart. It seems there could have been more forethought with arranging personnel's use of the elevator during a time when check-ins were at a high. When we didn't need to carry bags, etc, we generally took the stairs to avoid the slow (and very loud) elevator. The other issue we had was breakfast the following morning. When we went down to the dining area, all the eggs and ham were completely empty. As soon as a staff person arrived with more, it was empty again and the room was completely packed. I only saw one staff person taking care of refills -- from eggs to coffee, etc. Finally, and this is a small thing, but I'll mention anyway. It would have been nice to have a towel rack/holder placed near the two-person bath. The place was clean and the staff seemed friendly enough.More</t>
   </si>
   <si>
+    <t>ej1015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r238180883-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -498,6 +549,9 @@
     <t xml:space="preserve">Comfort suites Grand Prairie will make anyone happy. The staff was very friendly and helpful on our arrival. The rooms were very clean. The breakfast was nice and it was close to many attractions in the area. </t>
   </si>
   <si>
+    <t>jsalazar0526</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r232909059-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -519,6 +573,9 @@
     <t>worst hotel experience. I booked this hotel because it was on my way home from the hospital, i guranteed this hotel with a credit card because i was going to arrive late, at ten o'clock i get to the front desk and the clerk informed me that the manager had cancelled my reservation because there was a football game in arlington and they needed that room to sell for a higher price than what i reserved it for. I had till 7am on sunday to get to the hotel the manager had no reason cancelling my reservation. the clerk was rude i stepped outside to get my phone to call reservation center and when i went back inside to use my phone because there was lot of people outside being loud the clerk had locked the door not because the lobby was closed but just to be mean. I had to look for another hotel in the middle of the night for me and my baby. this was so unprofessional. there excuse was "i didnt call them to tell them i was going to arrive late" it was 10pm and i had reserved my reservation with a credit cardMore</t>
   </si>
   <si>
+    <t>Juicyjeje</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r226507557-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -537,6 +594,9 @@
     <t>Very clean and nice hotel. Me &amp; 2 other women stayed here for a wedding. We booked the two queen size beds. The beds were very comfy and fluffy. Clean sheets and clean towels. The pull out bed in the sofa was comfy as well. The room came with a plasma cable TV, iron &amp; iron board, mini fridge, coffee maker, COLD air condition, plenty of extra towels. The bathroom was clean and the water stayed hot for a very long time also. This hotel was very close to a lot of restaurants and shops. There's a Wal-mart just right across the highway also. The complementary breakfast wasn't so bad. They offered ham, eggs, toast, muffins, fruit, 3 kinds of cereal, coffee, orange juice, and do-it-yourself waffles. Overall this hotel is a WIN!! Great price , great location, great rooms. I would stay here anytime I'm in Grand Prairie again.  5 stars!!! More</t>
   </si>
   <si>
+    <t>Keepongo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r212060474-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -555,6 +615,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Ballislife247</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r210660198-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -570,6 +633,9 @@
     <t>We stayed at this hotel for one night. The rooms were spacious &amp; nice. The only issues that I had were the elevator and the A/C cut off during the night. Other than that, the stay was very comfortable. The staff was friendly and very helpful. The hotel was clean and didn't have a weird/funny smell.  Enjoy!</t>
   </si>
   <si>
+    <t>scrapper39</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r205392815-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -588,6 +654,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Prouddaddyo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r198227189-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -609,6 +678,9 @@
     <t>Stayed at this Comfort Suites while in the Dallas/Fort Worth area to visit Cowboys Stadium.  Perfect location right off the interstate and only about 10 minutes to the stadium.  Nice places to eat within a block or two. Room was nice.  Two queen size mattresses with a small hide-a-bed.  Fridge and microwave in room were great.  Room/hotel was clean.  Kids loved the indoor pool and hot tub.  Breakfast was good.  Only three minor things we noticed:  the door to the cabinet that housed the fridge would not close due to a bent hinge (which I fixed with my pocket tool), a couple of the tiles in the bathroom were cracked/loose, and the water pressure in the bathroom sink was less than ideal.  Otherwise, a very nice stay.More</t>
   </si>
   <si>
+    <t>ESM2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r197541614-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -622,6 +694,9 @@
   </si>
   <si>
     <t>the elevator sounded like it was slipping and a very noise and jerks. The carpet through out halls, entry and room were dirty. The bathroom sink would not drain. The beds were comfortable. Some major house cleaning and maintenance would go a long ways in make this a hotel worth of Comfort Suites. the fee for the safe is a joke. We have stayed in several  Comfort Suites is last three year and till this one had been pleased till this one. We will not use it again</t>
+  </si>
+  <si>
+    <t>travelchic06</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r193593973-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
@@ -647,6 +722,9 @@
 The next day, my card key to one of our rooms stopped working. My mother and I went to the front desk to get them fixed and the front desk clerk, Angela, fixed our keys and then we left to go get something down the street to eat for lunch. My phone rang and it was the front desk clerk, Angela who called and said, "Did you take a wallet from the from the lady that was checking in?" I told her no, I didn't even see a wallet. She said, that's fine that's why we have cameras to see what happened. I said that's fine. I didn't take anything. I do not steal and I don't like you accusing me a taking something. As soon as I got off the phone, the lady that was checking in while we were waiting in line to get our keys re-keyed, saw me and got out of the car yelling at me and cussing saying that, " I took her got damn wallet and that I needed to give her the wallet back. She said that the front desk clerk, Angela said she saw me take the wallet." I was sure that she did not see me take the wallet because...Upon arrival, the sheets were filthy and it was clearly evident that this room had not been properly serviced.   They had to move us out of our room into another room. The next day, my card key to one of our rooms stopped working. My mother and I went to the front desk to get them fixed and the front desk clerk, Angela, fixed our keys and then we left to go get something down the street to eat for lunch. My phone rang and it was the front desk clerk, Angela who called and said, "Did you take a wallet from the from the lady that was checking in?" I told her no, I didn't even see a wallet. She said, that's fine that's why we have cameras to see what happened. I said that's fine. I didn't take anything. I do not steal and I don't like you accusing me a taking something. As soon as I got off the phone, the lady that was checking in while we were waiting in line to get our keys re-keyed, saw me and got out of the car yelling at me and cussing saying that, " I took her got damn wallet and that I needed to give her the wallet back. She said that the front desk clerk, Angela said she saw me take the wallet." I was sure that she did not see me take the wallet because I didn’t even see a wallet. She said she was going to call the police and I told her to call them because I didn't take anything.  I proceeded to go into the restaurant to tell my mom and the lady followed me in there saying that the hotel clerk said we stole her wallet. We went back to the hotel and the hotel clerk, Angela said that they were waiting on the general manger to come so they could get the video.  The lady was in your lobby  yelling, screaming, cussing at me and my mother and the hotel clerk, just sat there and allowed that to happen in the establishment. My mom kept telling the hotel clerk that she needed to call the police to resolve this matter. Angela said that she was going to call the police and my mom told them to come to our room because we had to go get ready for graduation.  Also, she informed us that she had no capability of reviewing the cameras, but the manager would be on their way, and no one ever showed up.   I do not appreciate being humiliated and being labeled as a thief, and I had not taken anything from anyone.    I believe that the hotel representative added fuel to the fire when she made the accusations “that I saw her take the wallet.”  This is very serious and could have caused someone to get injured behind false accusations.  We didn't have time for...More</t>
   </si>
   <si>
+    <t>Dbuchic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r189079794-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -660,6 +738,9 @@
   </si>
   <si>
     <t xml:space="preserve">I stayed here for my graduation. Had two rooms in which one had to be relocated due to red substance on sheets.  There was another incident where employee did not act with integrity or exhibit good customer service.  Save yourself headache and travel on across the highway.  Never again will I ever stay here or let any one I know stay there </t>
+  </si>
+  <si>
+    <t>TheCann0n</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r182446831-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
@@ -693,6 +774,9 @@
 The problem with this hotel, it seems, is that should anything go wrong - will management be there to help you?  I had tried to contact management prior to my arrival to find out whether or not they'd hold a package for me.  No response...Let's start with the positives, and largely the reason that people would be reading this review.My check-in person was fantastic.  I was in much earlier than check-in time and she still found a spot for me despite the hotel being at capacity.  I know that was luck, too, but the point is that the check-in person did what she could to make it happen.The room itself was spacious and clean with good amenities.  Despite being right on the freeway, it was very quiet.  So quiet in fact that when I turned my A/C on, I could hear A/C from other rooms turning on.  As this was disturbing, I turned my fan on, and I was essentially shut out from noises coming from the outside world.Location is decent.  It's walking distance to a few restaurants.  Given that you are in the metroplex, it's certainly not close to everything, but you have to trade off whether or not it's close to the majority of the things that you want to do - and it was.  It's a short drive to Cowboys Stadium and the entertainment areas in Arlington.The breakfast was below-average but passable.The problem with this hotel, it seems, is that should anything go wrong - will management be there to help you?  I had tried to contact management prior to my arrival to find out whether or not they'd hold a package for me.  No response - I eventually had to phone to find out.Upon check-out, I find that the hotel charges a $1.50 safe fee per day.  Funny thing - I didn't even know that I had a safe, and I sure as heck didn't approve being charged for it.  I argued this after check-out.  The check-out person keeps me waiting for another 5 minutes as she fiddles with the computer, only to declare that the charge "should" now be reversed.  Well, it wasn't.  I was actually charged again.  So, now I'm contacting management and all I get back is another folio essentially confirming that I've now been double charged for what I shouldn't have been charged with in the first place.I'm not worried - I know that I'll eventually get my money back even if I have to charge them back through my credit card company.  Problem is that all of this could/should have been avoided - and regarding of eventual resolution, this is taking up my time that could be better used elsewhere.  So, despite a nice room and nice location - I cannot recommend this hotel, and I personally would not stay there again.  A safe charge - you've got to be kidding.More</t>
   </si>
   <si>
+    <t>18vivian18</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r167786292-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -711,6 +795,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Marcus9000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r129188136-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -726,6 +813,9 @@
     <t>Stayed here during Deep South tour, starting in Dallas. Hotel was handy for the highways and also several restaurants nearby. Had to use Sat Nav to find it as you could miss it but it is on a major road.It is handy to see all the sites of Dallas, the Sixth Floor Museum is about 20 minutes downtown, and Six Flags isn't far away, nor is the sports stadia.Highly recommended.</t>
   </si>
   <si>
+    <t>chumleyetta</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r123850200-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -735,16 +825,25 @@
     <t>January 30, 2012</t>
   </si>
   <si>
+    <t>Food_man56</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r121150469-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
     <t>121150469</t>
   </si>
   <si>
+    <t>oldfirefighter83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r120584037-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
     <t>120584037</t>
+  </si>
+  <si>
+    <t>RebeecaL</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r115201950-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
@@ -1255,43 +1354,47 @@
       <c r="A2" t="n">
         <v>58417</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>125450</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1305,7 +1408,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1318,37 +1421,37 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1362,7 +1465,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1375,37 +1478,37 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1425,50 +1528,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>58417</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>12756</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -1486,50 +1593,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>58417</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>77229</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1543,50 +1654,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>58417</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>125451</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1600,50 +1715,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>58417</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>125452</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1657,50 +1776,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>58417</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>8300</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1718,41 +1841,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>58417</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>125453</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
@@ -1771,50 +1898,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>58417</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>2424</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1828,50 +1959,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>58417</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>125454</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1885,50 +2020,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>58417</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>27885</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O13" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -1948,50 +2087,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>58417</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>125455</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2009,50 +2152,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>58417</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>125456</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="J15" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="O15" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2066,50 +2213,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>58417</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>125457</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2129,50 +2280,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>58417</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>125458</v>
+      </c>
+      <c r="C17" t="s">
+        <v>149</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="J17" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -2190,50 +2345,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>58417</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>125459</v>
+      </c>
+      <c r="C18" t="s">
+        <v>157</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="J18" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="K18" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="O18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -2253,50 +2412,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>58417</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>125460</v>
+      </c>
+      <c r="C19" t="s">
+        <v>164</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="J19" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="K19" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -2314,41 +2477,45 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>58417</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>125461</v>
+      </c>
+      <c r="C20" t="s">
+        <v>171</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="J20" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="K20" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
@@ -2377,50 +2544,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>58417</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>125462</v>
+      </c>
+      <c r="C21" t="s">
+        <v>177</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="J21" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="K21" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -2440,41 +2611,45 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>58417</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>125463</v>
+      </c>
+      <c r="C22" t="s">
+        <v>185</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="J22" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="K22" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
@@ -2503,50 +2678,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>58417</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>125464</v>
+      </c>
+      <c r="C23" t="s">
+        <v>192</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="J23" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="K23" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2560,50 +2739,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>58417</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>125465</v>
+      </c>
+      <c r="C24" t="s">
+        <v>199</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="J24" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="K24" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="O24" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2617,50 +2800,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>58417</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>125466</v>
+      </c>
+      <c r="C25" t="s">
+        <v>205</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="J25" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="K25" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -2684,50 +2871,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>58417</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>125467</v>
+      </c>
+      <c r="C26" t="s">
+        <v>212</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="J26" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -2751,50 +2942,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>58417</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>125468</v>
+      </c>
+      <c r="C27" t="s">
+        <v>220</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="J27" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="K27" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -2818,50 +3013,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>58417</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>125469</v>
+      </c>
+      <c r="C28" t="s">
+        <v>226</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="J28" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="K28" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="L28" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -2885,41 +3084,45 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>58417</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>125470</v>
+      </c>
+      <c r="C29" t="s">
+        <v>234</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="J29" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="K29" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="L29" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
@@ -2948,50 +3151,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>58417</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>125471</v>
+      </c>
+      <c r="C30" t="s">
+        <v>240</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="J30" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="K30" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="L30" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="O30" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -3015,50 +3222,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>58417</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>125472</v>
+      </c>
+      <c r="C31" t="s">
+        <v>248</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="J31" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="K31" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="L31" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3082,41 +3293,45 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>58417</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>125473</v>
+      </c>
+      <c r="C32" t="s">
+        <v>255</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="J32" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="K32" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
@@ -3135,35 +3350,39 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>58417</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>125474</v>
+      </c>
+      <c r="C33" t="s">
+        <v>261</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="J33" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s"/>
@@ -3179,33 +3398,34 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
-      <c r="Y33" t="s"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>58417</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>72562</v>
+      </c>
+      <c r="C34" t="s">
+        <v>265</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="J34" t="s"/>
       <c r="K34" t="s"/>
@@ -3222,33 +3442,34 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>58417</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>125475</v>
+      </c>
+      <c r="C35" t="s">
+        <v>268</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="J35" t="s"/>
       <c r="K35" t="s"/>
@@ -3265,33 +3486,34 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
-      <c r="Y35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>58417</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>125476</v>
+      </c>
+      <c r="C36" t="s">
+        <v>271</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="J36" t="s"/>
       <c r="K36" t="s"/>
@@ -3308,9 +3530,6 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
     </row>
   </sheetData>
 </worksheet>

--- a/data/hotels_by_city/Dallas/Dallas_shard_96.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_96.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="493">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,213 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>danaelsner3</t>
-  </si>
-  <si>
-    <t>06/04/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r567329589-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>55922</t>
+  </si>
+  <si>
+    <t>1163612</t>
+  </si>
+  <si>
+    <t>567329589</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>Dated everything, carpet, furniture, sheets, AC system</t>
+  </si>
+  <si>
+    <t>This hotel was a huge dissapointment.  The moment we entered the room I noticed the sub-par quality of the experience.  The furniture (coffee table, desk, headboards) was all scratched and very rickety.  The sheets were thing and very, very low quality.  The beds (two queen) where placed in a room that shouldn't have never had that size, as there was barely any room between the beds and they had a tiny nightstand that could barely hold an alarm clock, a phone and a lamp.  The pullout sofa was completely destroyed as the end making it almost impossible to hold a teenage boy. We stay with a large group and the experience of others was the same across the hotel. All these are signs of a hotel that has been allowed to get dated and with zero maintenance.  This coupled with drunk people at the entrance smoking cigarettes as well as beer cans and boxes in the parking lot made it for a very sub-par experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>This hotel was a huge dissapointment.  The moment we entered the room I noticed the sub-par quality of the experience.  The furniture (coffee table, desk, headboards) was all scratched and very rickety.  The sheets were thing and very, very low quality.  The beds (two queen) where placed in a room that shouldn't have never had that size, as there was barely any room between the beds and they had a tiny nightstand that could barely hold an alarm clock, a phone and a lamp.  The pullout sofa was completely destroyed as the end making it almost impossible to hold a teenage boy. We stay with a large group and the experience of others was the same across the hotel. All these are signs of a hotel that has been allowed to get dated and with zero maintenance.  This coupled with drunk people at the entrance smoking cigarettes as well as beer cans and boxes in the parking lot made it for a very sub-par experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r565187958-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>565187958</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Hospitality! </t>
+  </si>
+  <si>
+    <t>We checked in on March 6 . The Hotel clerk ( I wish I remembered her name) made checking in very easy. She answered all of our questions.  About 30 minutes into our stay , the power to the hotel went out. She did not lose her cool she was very professional.  She helped guest , while we waited for the maintenance man to fix the power, which was about 20 minutes. She was able to calm the guest that were coming out of their rooms. As far as I can tell there was not one angry guest because of her.  The rooms were very spacious and clean. They have an indoor pool and jacuzzi , after driving and riding in  a car for ten hours it was very relaxing to use. We did eat breakfast and they have a good selection of both hot and cold food. There is adequate parking. It was not hard to find ,right off of the interstate. When I come through again , I will definitely stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>We checked in on March 6 . The Hotel clerk ( I wish I remembered her name) made checking in very easy. She answered all of our questions.  About 30 minutes into our stay , the power to the hotel went out. She did not lose her cool she was very professional.  She helped guest , while we waited for the maintenance man to fix the power, which was about 20 minutes. She was able to calm the guest that were coming out of their rooms. As far as I can tell there was not one angry guest because of her.  The rooms were very spacious and clean. They have an indoor pool and jacuzzi , after driving and riding in  a car for ten hours it was very relaxing to use. We did eat breakfast and they have a good selection of both hot and cold food. There is adequate parking. It was not hard to find ,right off of the interstate. When I come through again , I will definitely stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r529207874-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>529207874</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Not up to Comfort Suites standards</t>
+  </si>
+  <si>
+    <t>When we first entered the bathroom, there was someone else's hair on the floor...That's pretty nasty. When we went to take a shower, there was what appeared to be mold in one of the corners of the shower. Picture is enclosed. It appears that there is little to no housekeeping training at this place and certainly no supervisor that checks up on the housekeepers.We have stayed here before with our problems, but this really left a bad taste in my mouth.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r520379961-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>520379961</t>
+  </si>
+  <si>
+    <t>09/01/2017</t>
+  </si>
+  <si>
+    <t>Was not expecting this!</t>
+  </si>
+  <si>
+    <t>Let me just start with this. I've worked for 2 Choice Hotels that were excellent, and I try my hardest to book with the Choice Hotel chain for that reason. I have expectations that I'll be getting a clean room and friendly customer service. With that said, I'm disgusted. My mother was in the hospital so we were trying to find a hotel nearby. We checked in 8/30 and the evening front desk clerk was excellent. She was really nice and made my check-in a breeze! I commend her for that! It was my sister , brother, and myself so we decided to get a room with 2 beds and a sleeper sofa. The description said a city view and we definitely did not get that. I threw the pic in for the heck of it but that wasn't a big issue...the sofa bed was though. It was disgusting and full of stains. There were no sheets in the room, but regardless we were disgusted so there was no way we'd be sleeping there anyways. We decided to share a bed, which was extremely comfortable by the way. The last thing that result ticked me off was the morning front desk clerk. As a former front desk clerk, I understand customer service. She was helping other guests with a reservation so we waited patiently to request some tooth brushes because we forgot ours. As we waited she rudely turned to...Let me just start with this. I've worked for 2 Choice Hotels that were excellent, and I try my hardest to book with the Choice Hotel chain for that reason. I have expectations that I'll be getting a clean room and friendly customer service. With that said, I'm disgusted. My mother was in the hospital so we were trying to find a hotel nearby. We checked in 8/30 and the evening front desk clerk was excellent. She was really nice and made my check-in a breeze! I commend her for that! It was my sister , brother, and myself so we decided to get a room with 2 beds and a sleeper sofa. The description said a city view and we definitely did not get that. I threw the pic in for the heck of it but that wasn't a big issue...the sofa bed was though. It was disgusting and full of stains. There were no sheets in the room, but regardless we were disgusted so there was no way we'd be sleeping there anyways. We decided to share a bed, which was extremely comfortable by the way. The last thing that result ticked me off was the morning front desk clerk. As a former front desk clerk, I understand customer service. She was helping other guests with a reservation so we waited patiently to request some tooth brushes because we forgot ours. As we waited she rudely turned to us and with a very very rude tone was like "Can I help y'all with something?" Worst front desk clerk I've ever met! You don't treat guests with that kind of attitude. Simply started..I won't ever stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Let me just start with this. I've worked for 2 Choice Hotels that were excellent, and I try my hardest to book with the Choice Hotel chain for that reason. I have expectations that I'll be getting a clean room and friendly customer service. With that said, I'm disgusted. My mother was in the hospital so we were trying to find a hotel nearby. We checked in 8/30 and the evening front desk clerk was excellent. She was really nice and made my check-in a breeze! I commend her for that! It was my sister , brother, and myself so we decided to get a room with 2 beds and a sleeper sofa. The description said a city view and we definitely did not get that. I threw the pic in for the heck of it but that wasn't a big issue...the sofa bed was though. It was disgusting and full of stains. There were no sheets in the room, but regardless we were disgusted so there was no way we'd be sleeping there anyways. We decided to share a bed, which was extremely comfortable by the way. The last thing that result ticked me off was the morning front desk clerk. As a former front desk clerk, I understand customer service. She was helping other guests with a reservation so we waited patiently to request some tooth brushes because we forgot ours. As we waited she rudely turned to...Let me just start with this. I've worked for 2 Choice Hotels that were excellent, and I try my hardest to book with the Choice Hotel chain for that reason. I have expectations that I'll be getting a clean room and friendly customer service. With that said, I'm disgusted. My mother was in the hospital so we were trying to find a hotel nearby. We checked in 8/30 and the evening front desk clerk was excellent. She was really nice and made my check-in a breeze! I commend her for that! It was my sister , brother, and myself so we decided to get a room with 2 beds and a sleeper sofa. The description said a city view and we definitely did not get that. I threw the pic in for the heck of it but that wasn't a big issue...the sofa bed was though. It was disgusting and full of stains. There were no sheets in the room, but regardless we were disgusted so there was no way we'd be sleeping there anyways. We decided to share a bed, which was extremely comfortable by the way. The last thing that result ticked me off was the morning front desk clerk. As a former front desk clerk, I understand customer service. She was helping other guests with a reservation so we waited patiently to request some tooth brushes because we forgot ours. As we waited she rudely turned to us and with a very very rude tone was like "Can I help y'all with something?" Worst front desk clerk I've ever met! You don't treat guests with that kind of attitude. Simply started..I won't ever stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r515166781-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>515166781</t>
+  </si>
+  <si>
+    <t>08/19/2017</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>Stayed at the Comfort Suites in Grand Prairie for one night when we took our grandson to visit UT at Arlington.  We were apprehensive about this hotel after reading some of the reviews, but booked it because of the indoor heated pool.  We were extremely pleased with the hotel. It was clean, no odder, comfortable and a good location on the I-20 frontage road with a two way street on the back side of the hotel.  There are many different type of places to eat on the back street.  We ate at a Mexican restaurant that was in sight of the hotel. It was OK, but nothing special about the food.  Our breakfast was a typical free hotel breakfast and included scrambled eggs &amp; bacon.  The lady taking care of the breakfast area did a good job keeping tables clean and food stocked.  We would defiantly stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at the Comfort Suites in Grand Prairie for one night when we took our grandson to visit UT at Arlington.  We were apprehensive about this hotel after reading some of the reviews, but booked it because of the indoor heated pool.  We were extremely pleased with the hotel. It was clean, no odder, comfortable and a good location on the I-20 frontage road with a two way street on the back side of the hotel.  There are many different type of places to eat on the back street.  We ate at a Mexican restaurant that was in sight of the hotel. It was OK, but nothing special about the food.  Our breakfast was a typical free hotel breakfast and included scrambled eggs &amp; bacon.  The lady taking care of the breakfast area did a good job keeping tables clean and food stocked.  We would defiantly stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r486631322-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>486631322</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Comfy</t>
+  </si>
+  <si>
+    <t>I took my kids to this hotel .They didnt want to leave .The indoor pool and hot tub was amazing &amp; clean.Its so clean &amp; comfy .The front desk last was very nice &amp; helpful .i will be coming again.i enjoy the room</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r475786794-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>475786794</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t>Easter Weekend fun</t>
+  </si>
+  <si>
+    <t>Close enough to Six Flags if you can find it. Don't follow your GPS or you'll never get there. Nice hotel, clean with friendly staff. We came to this one for the indoor pool and hot tub, it was wonderful after a day at Six Flags. The mural on the wall is beautiful. Beds are comfortable and shower and towels were good. Decent breakfast to start the day. Would recommend and come here again.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r464094989-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>464094989</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t>Lovely gem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a wonderful clean gem of a hotel. The rooms are spacious and clean. The hotel is quiet and relaxing. They have an indoor pool and on site laundry. Good breakfast too. Beds and pillows very comfortable. The only drawback was getting there. The GPS had trouble finding it because the address is on the highway I-20 but in reality it is on a side road which the GPS also did not recognize. Call the hotel and ask for the exit off the highway and the directions from there.  This is really a nice place if you can find it </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r425411794-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>425411794</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t>State Fair and short vacation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent hotel, clean, friendly staff, great amenities! Great location between both Dallas and Fort Worth. Varied breakfast every morning, including continental and hot items. Nice to have laundromat on site, if needed. </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r414876844-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>414876844</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel and location </t>
+  </si>
+  <si>
+    <t>In town for the Alabama game. We have stayed here several times before. Arrived early and thanks to Valerie she found us a ready room. We were in room 404 and it was nice. Unfortunately the hotel had several groups of kids that made the noise level go up. Good breakfast before leaving for the airport. We will stay here again..</t>
+  </si>
+  <si>
+    <t>September 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r402556369-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
-    <t>55922</t>
-  </si>
-  <si>
-    <t>1163612</t>
-  </si>
-  <si>
     <t>402556369</t>
   </si>
   <si>
@@ -177,9 +369,6 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r398218865-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -219,9 +408,6 @@
     <t>I rarely write a bad review but this place was a big disappointment. We had to wait at check in for a clean room (almost 5pm). Exiting the elevator, it smelled like barf. Thank God our room, which was close to the elevator, did not smell like that. But the smell was there all night and the next morning. The floor in the room was not clean. The checkout receipt included a $1.50 safe fee.. really  for a room that was 100+/night. And the lady, at check out, well can we all just act we like our job. To the owners or management, you have a nice facility. Get some good employees or treat them right or something. And please do not nickle and dime customers.More</t>
   </si>
   <si>
-    <t>Diane H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r382976606-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -237,15 +423,9 @@
     <t>The Comfort Inn is in an easy to access area, although a little too close to the highway. You can hear road noise from the room. Staff was helpful when I had a complaint. The rooms however are NOT all non-smoking as their advertising indicates. The first room I was directed to had clearly been smoked in recently. You could also smell smoke in the hallway of the entire 3rd floor. I was disappointed since everywhere in the hotel I saw signs proclaiming it is a "non-smoking facility".  And you are required to sign a statement which says you will be held responsible if you smoke in any of the rooms. I immediately returned to the front desk and was given a room on a lower floor which was clean and smoke free. It was however on the very end of the building next to a stairway and I heard traffic noise as well as children running up and down the stairs very loudly. I will choose not to stop at this same hotel on my travels through again.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>The Comfort Inn is in an easy to access area, although a little too close to the highway. You can hear road noise from the room. Staff was helpful when I had a complaint. The rooms however are NOT all non-smoking as their advertising indicates. The first room I was directed to had clearly been smoked in recently. You could also smell smoke in the hallway of the entire 3rd floor. I was disappointed since everywhere in the hotel I saw signs proclaiming it is a "non-smoking facility".  And you are required to sign a statement which says you will be held responsible if you smoke in any of the rooms. I immediately returned to the front desk and was given a room on a lower floor which was clean and smoke free. It was however on the very end of the building next to a stairway and I heard traffic noise as well as children running up and down the stairs very loudly. I will choose not to stop at this same hotel on my travels through again.More</t>
   </si>
   <si>
-    <t>Ian P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r380417423-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -267,9 +447,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>wildjourne</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r367454447-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -285,9 +462,6 @@
     <t xml:space="preserve">Almost all of the Comfort Suites I've been to have been a great value for my family of 5. We always get two queen beds and the rooms always have a sleeper sofa. The rooms were clean and the breakfast was good. Great staff too.This one stands of for an awesome pool area.  The mural on the wall of sea life is great.  This hotel is also nice and close to a lot of area attractions.  </t>
   </si>
   <si>
-    <t>Vision293</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r365621192-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -303,12 +477,6 @@
     <t xml:space="preserve">This hotel is in a good area with quite a few eateries in close walking distance. Staff is quite pleasant. It has a fitness room however it does need maintenance on machines. Pool area is descent, I would bring family to this hotel also right off of I-20 for the travelers. </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Karen W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r365119189-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -324,9 +492,6 @@
     <t>The room was clean, but the pull out couch mattress was disgusting.   It was stained and looked uncomfortable.   We were there with other families and they all said the same about the pull out couch.   Staff was friendly, but many didn't speak any English...at all.   I realize that traffic can't be controlled but the location right on a major expressway made for lots of traffic noise.</t>
   </si>
   <si>
-    <t>Pbkr85</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r355755880-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -342,9 +507,6 @@
     <t>I rented this room strictly for location and indoor pool, you could tell it was a older choice hotel, but was updated, clean, and had friendly staff. Mattress was a little uncomfortable, but would use this hotel again. The young girls really enjoyed the pool.</t>
   </si>
   <si>
-    <t>Jennifer B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r338505458-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -363,9 +525,6 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>Momof2boyz2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r334070260-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -384,9 +543,6 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t>Angie H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r324030211-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -405,9 +561,6 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>BrookeM08</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r313578111-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -426,9 +579,6 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>Soledad M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r309265082-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -444,9 +594,6 @@
     <t xml:space="preserve">I booked here wanting the great expirence i had all the time when visiting not knowing the 2 diffrent people i spoke with were so rude this hotel is money hungry i had tried too book for 99 but since it was a game weekend it was 189 this is so sad people have to bump price so high and the customer service was so bad i will not return ever i will not recomend and choice hotel corprate will here from me save your money stay in forest hill short drive away a great la quinta with heated indoor pool nice people and great breakfast for 90 </t>
   </si>
   <si>
-    <t>christiehinton</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r288899253-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -465,7 +612,206 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>RaeJacks</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r284583085-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>284583085</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Cramped</t>
+  </si>
+  <si>
+    <t>First let's start with the possitives:
+1. The staff were all very nice and friendly and quick to help out
+2. Rooms/Hotel itself was very clean and well kept looking
+3. Right on interstate with easy access to numerous restaraunts and shopping centers
+Now the negatives:
+1: The pool was dirty and cold - water cloudy, hair floating in it, a greasy film on top of water, you could see a brown greasy ring around the edge of water - we were here 4 days and it never got cleaned
+2: Breakfast - Eggs were sitting in a puddle of water, juice pitchers were not kept filled, coffee tasted old each morning, not a variety - eggs, gravy, waffles or eggs, bacon, gravy - along with the cereal, waffles, etc...
+3: Rooms - very cramped - if you fold out the twin couch you could not walk past it to the restroom. It blocked the entire end of the room - standing between the beds you touched each bed - bed by the wall is right on top of the a/c so it blows right on that one side - same with desk chair_If you sat in desk chair you cannot get to beds
+4: Rooms - Bathroom - shower curtain hung at an angle so curtain will not stay closed - toilet runs water sporadically all day/night - the float in ours kept messing up so we had to...First let's start with the possitives:1. The staff were all very nice and friendly and quick to help out2. Rooms/Hotel itself was very clean and well kept looking3. Right on interstate with easy access to numerous restaraunts and shopping centersNow the negatives:1: The pool was dirty and cold - water cloudy, hair floating in it, a greasy film on top of water, you could see a brown greasy ring around the edge of water - we were here 4 days and it never got cleaned2: Breakfast - Eggs were sitting in a puddle of water, juice pitchers were not kept filled, coffee tasted old each morning, not a variety - eggs, gravy, waffles or eggs, bacon, gravy - along with the cereal, waffles, etc...3: Rooms - very cramped - if you fold out the twin couch you could not walk past it to the restroom. It blocked the entire end of the room - standing between the beds you touched each bed - bed by the wall is right on top of the a/c so it blows right on that one side - same with desk chair_If you sat in desk chair you cannot get to beds4: Rooms - Bathroom - shower curtain hung at an angle so curtain will not stay closed - toilet runs water sporadically all day/night - the float in ours kept messing up so we had to remove tank lid and fix the flapper or it would not fill up5: Rooms - Noisy - we were in our room, door closed, 3 kids playing and we could hear the people across the hall with their door closed - you can hear every time the rooms next door opened/closed bathroom door, flushed toilet, showered, etc...6: Laundry - 1 washer 1 dryer for entire hotel - washer worked fine (25 minutes per load) but it took 3 hours to dry 2 loads of clothes (we put the first load in at 9 p.m. and it was almost 12 when we gave up). Dryer got hot but would not dry the clothes. Finally hung some in room to complete the drying. Attendant did inform us that the door would not work after midnight so we would not be locked out from our clothes7: Parking - very small parking lot8: WiFi - Slow, sporadic, freezes (attendant did inform us upon check in that they were having trouble and provided us with an alternate sign in password)Over all I would not recommend this hotel to anyone. We stayed here on a recommendation from a person who stayed here 2 years ago but never again. We have stayed in numerous Comfort Suites (we left one in one town where we had a family reunion and traveled to this one in Ft Worth for vacation) and have never had an experience like this.I give it 2 stars for friendliness and general cleanliness but that's all I can give it.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>First let's start with the possitives:
+1. The staff were all very nice and friendly and quick to help out
+2. Rooms/Hotel itself was very clean and well kept looking
+3. Right on interstate with easy access to numerous restaraunts and shopping centers
+Now the negatives:
+1: The pool was dirty and cold - water cloudy, hair floating in it, a greasy film on top of water, you could see a brown greasy ring around the edge of water - we were here 4 days and it never got cleaned
+2: Breakfast - Eggs were sitting in a puddle of water, juice pitchers were not kept filled, coffee tasted old each morning, not a variety - eggs, gravy, waffles or eggs, bacon, gravy - along with the cereal, waffles, etc...
+3: Rooms - very cramped - if you fold out the twin couch you could not walk past it to the restroom. It blocked the entire end of the room - standing between the beds you touched each bed - bed by the wall is right on top of the a/c so it blows right on that one side - same with desk chair_If you sat in desk chair you cannot get to beds
+4: Rooms - Bathroom - shower curtain hung at an angle so curtain will not stay closed - toilet runs water sporadically all day/night - the float in ours kept messing up so we had to...First let's start with the possitives:1. The staff were all very nice and friendly and quick to help out2. Rooms/Hotel itself was very clean and well kept looking3. Right on interstate with easy access to numerous restaraunts and shopping centersNow the negatives:1: The pool was dirty and cold - water cloudy, hair floating in it, a greasy film on top of water, you could see a brown greasy ring around the edge of water - we were here 4 days and it never got cleaned2: Breakfast - Eggs were sitting in a puddle of water, juice pitchers were not kept filled, coffee tasted old each morning, not a variety - eggs, gravy, waffles or eggs, bacon, gravy - along with the cereal, waffles, etc...3: Rooms - very cramped - if you fold out the twin couch you could not walk past it to the restroom. It blocked the entire end of the room - standing between the beds you touched each bed - bed by the wall is right on top of the a/c so it blows right on that one side - same with desk chair_If you sat in desk chair you cannot get to beds4: Rooms - Bathroom - shower curtain hung at an angle so curtain will not stay closed - toilet runs water sporadically all day/night - the float in ours kept messing up so we had to remove tank lid and fix the flapper or it would not fill up5: Rooms - Noisy - we were in our room, door closed, 3 kids playing and we could hear the people across the hall with their door closed - you can hear every time the rooms next door opened/closed bathroom door, flushed toilet, showered, etc...6: Laundry - 1 washer 1 dryer for entire hotel - washer worked fine (25 minutes per load) but it took 3 hours to dry 2 loads of clothes (we put the first load in at 9 p.m. and it was almost 12 when we gave up). Dryer got hot but would not dry the clothes. Finally hung some in room to complete the drying. Attendant did inform us that the door would not work after midnight so we would not be locked out from our clothes7: Parking - very small parking lot8: WiFi - Slow, sporadic, freezes (attendant did inform us upon check in that they were having trouble and provided us with an alternate sign in password)Over all I would not recommend this hotel to anyone. We stayed here on a recommendation from a person who stayed here 2 years ago but never again. We have stayed in numerous Comfort Suites (we left one in one town where we had a family reunion and traveled to this one in Ft Worth for vacation) and have never had an experience like this.I give it 2 stars for friendliness and general cleanliness but that's all I can give it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r278086684-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>278086684</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>Simple fixes would help</t>
+  </si>
+  <si>
+    <t>Sagging shower curtain rod, towel bar falling off, slow and jumpy elevator, spotty and weak wifi, poor breakfast service, and a very noisy A/C unit combine to assure we will not stay here again. The property had four and 1/2 out of five stars on another site, but I can't imagine why.The desk staff, however, was very friendly and welcoming.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r276297595-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>276297595</t>
+  </si>
+  <si>
+    <t>05/31/2015</t>
+  </si>
+  <si>
+    <t>Superb staff!</t>
+  </si>
+  <si>
+    <t>We stayed for three nights while visiting Dallas/Fort Worth. The hotel was clean and quiet. The staff resolved a couple if small issues while we were there and did a great job. The hotel is very convenient to the interstate. Lots of good restaurants near by. Re mend to travelers.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r272536412-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>272536412</t>
+  </si>
+  <si>
+    <t>05/17/2015</t>
+  </si>
+  <si>
+    <t>graduation</t>
+  </si>
+  <si>
+    <t>The hotel is a little hard to find but it is a great place.  Staff was wonderful, rooms were very nice and the pillows were awesome.  We liked the hot tub in the room.  I would stay here again if I go to Dallas in the future</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r268136560-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>268136560</t>
+  </si>
+  <si>
+    <t>04/26/2015</t>
+  </si>
+  <si>
+    <t>Decent for a budget trip</t>
+  </si>
+  <si>
+    <t>We were in town for a basketball tournament and checked into this hotel yesterday 4/25/15 around 12:30pm. Initially when I booked the room I didn't qualify for any of the discounts bc I was going to be traveling alone with my son. My mother ended up traveling with me. So when i checked in I told the lady of the changes &amp; asked her if I could get a senior citizen, aarp, triple A or military discount (basically any discount to reflect the change). The clerk did not want to give a discount, she wasn't very accomodating at all. Everything we suggested she shot down. Saying their system isn't set up for changes or manual adjustments after a reservation had been booked. We had to ask her will you atleast try it in the system, she tapped the computer &amp; said yeah it won't let me do anything. We even suggested cancelling the room &amp; reserving it with us standing there. She shot that down saying someone online could take &amp; we wouldn't have anything at all. The room itself is nice. The beds are ok comfort wise but they do give you a lot of pillows. They gave have a lot of plugs &amp; usb ports in the room. You get HBO &amp; free wifi. But the wifi is soo super slow its a joke to try and use it. The shower head had calcium build up on it...We were in town for a basketball tournament and checked into this hotel yesterday 4/25/15 around 12:30pm. Initially when I booked the room I didn't qualify for any of the discounts bc I was going to be traveling alone with my son. My mother ended up traveling with me. So when i checked in I told the lady of the changes &amp; asked her if I could get a senior citizen, aarp, triple A or military discount (basically any discount to reflect the change). The clerk did not want to give a discount, she wasn't very accomodating at all. Everything we suggested she shot down. Saying their system isn't set up for changes or manual adjustments after a reservation had been booked. We had to ask her will you atleast try it in the system, she tapped the computer &amp; said yeah it won't let me do anything. We even suggested cancelling the room &amp; reserving it with us standing there. She shot that down saying someone online could take &amp; we wouldn't have anything at all. The room itself is nice. The beds are ok comfort wise but they do give you a lot of pillows. They gave have a lot of plugs &amp; usb ports in the room. You get HBO &amp; free wifi. But the wifi is soo super slow its a joke to try and use it. The shower head had calcium build up on it so you didn't get good water pressure. The hot water is average, i had the dial turn all the way up on the hot side &amp; it was just above warm. Breakfast was nice eggs,ham, waffles etc. The hotel has a great location. You can walk to the nearby restaurants. It sits off the highway but you don't hear none of the traffic. Its a very clean hotel and a decent price for the budget conscious traveler. The biggest disappointment was the customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>We were in town for a basketball tournament and checked into this hotel yesterday 4/25/15 around 12:30pm. Initially when I booked the room I didn't qualify for any of the discounts bc I was going to be traveling alone with my son. My mother ended up traveling with me. So when i checked in I told the lady of the changes &amp; asked her if I could get a senior citizen, aarp, triple A or military discount (basically any discount to reflect the change). The clerk did not want to give a discount, she wasn't very accomodating at all. Everything we suggested she shot down. Saying their system isn't set up for changes or manual adjustments after a reservation had been booked. We had to ask her will you atleast try it in the system, she tapped the computer &amp; said yeah it won't let me do anything. We even suggested cancelling the room &amp; reserving it with us standing there. She shot that down saying someone online could take &amp; we wouldn't have anything at all. The room itself is nice. The beds are ok comfort wise but they do give you a lot of pillows. They gave have a lot of plugs &amp; usb ports in the room. You get HBO &amp; free wifi. But the wifi is soo super slow its a joke to try and use it. The shower head had calcium build up on it...We were in town for a basketball tournament and checked into this hotel yesterday 4/25/15 around 12:30pm. Initially when I booked the room I didn't qualify for any of the discounts bc I was going to be traveling alone with my son. My mother ended up traveling with me. So when i checked in I told the lady of the changes &amp; asked her if I could get a senior citizen, aarp, triple A or military discount (basically any discount to reflect the change). The clerk did not want to give a discount, she wasn't very accomodating at all. Everything we suggested she shot down. Saying their system isn't set up for changes or manual adjustments after a reservation had been booked. We had to ask her will you atleast try it in the system, she tapped the computer &amp; said yeah it won't let me do anything. We even suggested cancelling the room &amp; reserving it with us standing there. She shot that down saying someone online could take &amp; we wouldn't have anything at all. The room itself is nice. The beds are ok comfort wise but they do give you a lot of pillows. They gave have a lot of plugs &amp; usb ports in the room. You get HBO &amp; free wifi. But the wifi is soo super slow its a joke to try and use it. The shower head had calcium build up on it so you didn't get good water pressure. The hot water is average, i had the dial turn all the way up on the hot side &amp; it was just above warm. Breakfast was nice eggs,ham, waffles etc. The hotel has a great location. You can walk to the nearby restaurants. It sits off the highway but you don't hear none of the traffic. Its a very clean hotel and a decent price for the budget conscious traveler. The biggest disappointment was the customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r267111324-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>267111324</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>Overall Good Experience</t>
+  </si>
+  <si>
+    <t>My family and I enjoyed our stay at this hotel.  It was very stylish, the desk clerks were all very nice and professional.  The rooms were spacious and comfortable.  We enjoyed the heated pool, the only downside was that the jacuzzi heater was on the blink, the first night, but a repair was made the next morning, so it was nice and warm the second night (kudos for quick service repair!) The breakfast area was nice, but we didn't take advantage of it (we met friends at a nearby restaurant).  Shopping was very close by also.  A good area, right off the freeway.  I enjoyed my stay, would definitely recommend it, and I'd gladly stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>My family and I enjoyed our stay at this hotel.  It was very stylish, the desk clerks were all very nice and professional.  The rooms were spacious and comfortable.  We enjoyed the heated pool, the only downside was that the jacuzzi heater was on the blink, the first night, but a repair was made the next morning, so it was nice and warm the second night (kudos for quick service repair!) The breakfast area was nice, but we didn't take advantage of it (we met friends at a nearby restaurant).  Shopping was very close by also.  A good area, right off the freeway.  I enjoyed my stay, would definitely recommend it, and I'd gladly stay there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r266702532-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>266702532</t>
+  </si>
+  <si>
+    <t>04/19/2015</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>My mother and I shared a room on a Friday night. The rooms are very clean and the staff is nice! The beds are weird. They sink in the middle almost like they have a hard ridge around them. I'm not sure if they are old and overused or they are just made that way. Convenient location and good breakfast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r253739951-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>253739951</t>
+  </si>
+  <si>
+    <t>02/11/2015</t>
+  </si>
+  <si>
+    <t>Great Stay, 3 Rooms.</t>
+  </si>
+  <si>
+    <t>Brought the whole family up to visit Trader Village. Comfort Suites is right down the road. We were very impressed with the cleanliness of the rooms.  They helpfully gave us all three rooms on the 1st floor and right together. Breakfast was good scrambled eggs, sausage, and make your own waffle's. They also had bagels, yogurt muffins and bread. As well as cereal, milk and juice. The only downside I noticed was minor, but the TV in the room seemed small compared to most hotels we have stayed.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r250971883-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>250971883</t>
+  </si>
+  <si>
+    <t>01/25/2015</t>
+  </si>
+  <si>
+    <t>Resonably priced and a safe place</t>
+  </si>
+  <si>
+    <t>Used cheap tickets to book room. Good room for the money. Would stay there again. As good as a red roof inn a bit more expensive doyou want a cheap place or expensive that is the choice. This is just pegs in a hole always look at your room before getting the room.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r248142857-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>248142857</t>
+  </si>
+  <si>
+    <t>01/07/2015</t>
+  </si>
+  <si>
+    <t>Clean hotel in a perfect location with good breakfast</t>
+  </si>
+  <si>
+    <t>My fam had a wonderful stay at this hotel.  Hotel is near an interstate which connects to the new George Bush Turnpike.  We did a lot of shopping at Plano, Grapevine, Galleria, Premium Outlet (at Allen and Grand Prairie), North Park and Hong Kong market and all were within reasonable driving distance.  And also near a Walmart, Sam's and a Kroger and some fast food restaurants. Breakfast was great with wide variety of food especially the waffle.  They have indoor pool and spa and fitness center with stationary bike (helps my knee). The whole place is clean and orderly.  Front desk clerk very helpful and friendly.  Only slight discomfort is the noise from the interstate especially if you are a light sleeper.  Highly recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>My fam had a wonderful stay at this hotel.  Hotel is near an interstate which connects to the new George Bush Turnpike.  We did a lot of shopping at Plano, Grapevine, Galleria, Premium Outlet (at Allen and Grand Prairie), North Park and Hong Kong market and all were within reasonable driving distance.  And also near a Walmart, Sam's and a Kroger and some fast food restaurants. Breakfast was great with wide variety of food especially the waffle.  They have indoor pool and spa and fitness center with stationary bike (helps my knee). The whole place is clean and orderly.  Front desk clerk very helpful and friendly.  Only slight discomfort is the noise from the interstate especially if you are a light sleeper.  Highly recommended!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r247864823-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
@@ -483,15 +829,9 @@
     <t>My family and I stayed at this hotel over the Christmas holiday. We were in and out of the hotel at different times and the staff that we interacted with were all friendly. There is an indoor heated pool which was nice, the beds were comfortable and the room was very spacious. The breakfast was a hot breakfast with eggs, waffle, meats and juice and coffee. It was a nice stay and I would book at this hotel again. The only cons of the hotel was the fact that a lot of the time there was not anyone at the front desk. I had to go back to my room and call the front desk a couple of times to request additional towels, sheets, or a snack from the snack area. There was another couple that mentioned they did the same thing. Also, parental supervision was not enforced at the pool and there were rowdy teenage boys jumping in and out of the jacuzzi while we were in it. The girl who checked us in was unable to find our Choice Rewards membership (even though we had been at a choice hotel the evening before) and she was unable to run my credit card (which I called the bank and they confirmed it wasn't the card it was her machine)MoreShow less</t>
   </si>
   <si>
-    <t>December 2014</t>
-  </si>
-  <si>
     <t>My family and I stayed at this hotel over the Christmas holiday. We were in and out of the hotel at different times and the staff that we interacted with were all friendly. There is an indoor heated pool which was nice, the beds were comfortable and the room was very spacious. The breakfast was a hot breakfast with eggs, waffle, meats and juice and coffee. It was a nice stay and I would book at this hotel again. The only cons of the hotel was the fact that a lot of the time there was not anyone at the front desk. I had to go back to my room and call the front desk a couple of times to request additional towels, sheets, or a snack from the snack area. There was another couple that mentioned they did the same thing. Also, parental supervision was not enforced at the pool and there were rowdy teenage boys jumping in and out of the jacuzzi while we were in it. The girl who checked us in was unable to find our Choice Rewards membership (even though we had been at a choice hotel the evening before) and she was unable to run my credit card (which I called the bank and they confirmed it wasn't the card it was her machine)More</t>
   </si>
   <si>
-    <t>Emil O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r239848915-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -510,9 +850,6 @@
     <t>November 2014</t>
   </si>
   <si>
-    <t>KidzAustin</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r238309697-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -531,9 +868,6 @@
     <t>My husband and I stayed one night in a King Suite with 2-person hot tub. While the room and hot tub were nice, there were things about the hotel that could have been better. For one thing, the place has only one elevator. We were checking in the Saturday afternoon before a Cowboys game the following day. When we went to bring our bags up, there was a line at the elevator and the person that got off was cleaning staff, which included one person and a large cart. It seems there could have been more forethought with arranging personnel's use of the elevator during a time when check-ins were at a high. When we didn't need to carry bags, etc, we generally took the stairs to avoid the slow (and very loud) elevator. The other issue we had was breakfast the following morning. When we went down to the dining area, all the eggs and ham were completely empty. As soon as a staff person arrived with more, it was empty again and the room was completely packed. I only saw one staff person taking care of refills -- from eggs to coffee, etc. Finally, and this is a small thing, but I'll mention anyway. It would have been nice to have a towel rack/holder placed near the two-person bath. The place was clean and the staff seemed friendly enough.More</t>
   </si>
   <si>
-    <t>ej1015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r238180883-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -549,9 +883,6 @@
     <t xml:space="preserve">Comfort suites Grand Prairie will make anyone happy. The staff was very friendly and helpful on our arrival. The rooms were very clean. The breakfast was nice and it was close to many attractions in the area. </t>
   </si>
   <si>
-    <t>jsalazar0526</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r232909059-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -573,9 +904,6 @@
     <t>worst hotel experience. I booked this hotel because it was on my way home from the hospital, i guranteed this hotel with a credit card because i was going to arrive late, at ten o'clock i get to the front desk and the clerk informed me that the manager had cancelled my reservation because there was a football game in arlington and they needed that room to sell for a higher price than what i reserved it for. I had till 7am on sunday to get to the hotel the manager had no reason cancelling my reservation. the clerk was rude i stepped outside to get my phone to call reservation center and when i went back inside to use my phone because there was lot of people outside being loud the clerk had locked the door not because the lobby was closed but just to be mean. I had to look for another hotel in the middle of the night for me and my baby. this was so unprofessional. there excuse was "i didnt call them to tell them i was going to arrive late" it was 10pm and i had reserved my reservation with a credit cardMore</t>
   </si>
   <si>
-    <t>Juicyjeje</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r226507557-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -594,9 +922,6 @@
     <t>Very clean and nice hotel. Me &amp; 2 other women stayed here for a wedding. We booked the two queen size beds. The beds were very comfy and fluffy. Clean sheets and clean towels. The pull out bed in the sofa was comfy as well. The room came with a plasma cable TV, iron &amp; iron board, mini fridge, coffee maker, COLD air condition, plenty of extra towels. The bathroom was clean and the water stayed hot for a very long time also. This hotel was very close to a lot of restaurants and shops. There's a Wal-mart just right across the highway also. The complementary breakfast wasn't so bad. They offered ham, eggs, toast, muffins, fruit, 3 kinds of cereal, coffee, orange juice, and do-it-yourself waffles. Overall this hotel is a WIN!! Great price , great location, great rooms. I would stay here anytime I'm in Grand Prairie again.  5 stars!!! More</t>
   </si>
   <si>
-    <t>Keepongo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r212060474-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -615,9 +940,6 @@
     <t>June 2014</t>
   </si>
   <si>
-    <t>Ballislife247</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r210660198-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -633,9 +955,6 @@
     <t>We stayed at this hotel for one night. The rooms were spacious &amp; nice. The only issues that I had were the elevator and the A/C cut off during the night. Other than that, the stay was very comfortable. The staff was friendly and very helpful. The hotel was clean and didn't have a weird/funny smell.  Enjoy!</t>
   </si>
   <si>
-    <t>scrapper39</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r205392815-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -654,9 +973,6 @@
     <t>April 2014</t>
   </si>
   <si>
-    <t>Prouddaddyo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r198227189-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -678,9 +994,6 @@
     <t>Stayed at this Comfort Suites while in the Dallas/Fort Worth area to visit Cowboys Stadium.  Perfect location right off the interstate and only about 10 minutes to the stadium.  Nice places to eat within a block or two. Room was nice.  Two queen size mattresses with a small hide-a-bed.  Fridge and microwave in room were great.  Room/hotel was clean.  Kids loved the indoor pool and hot tub.  Breakfast was good.  Only three minor things we noticed:  the door to the cabinet that housed the fridge would not close due to a bent hinge (which I fixed with my pocket tool), a couple of the tiles in the bathroom were cracked/loose, and the water pressure in the bathroom sink was less than ideal.  Otherwise, a very nice stay.More</t>
   </si>
   <si>
-    <t>ESM2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r197541614-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -696,9 +1009,6 @@
     <t>the elevator sounded like it was slipping and a very noise and jerks. The carpet through out halls, entry and room were dirty. The bathroom sink would not drain. The beds were comfortable. Some major house cleaning and maintenance would go a long ways in make this a hotel worth of Comfort Suites. the fee for the safe is a joke. We have stayed in several  Comfort Suites is last three year and till this one had been pleased till this one. We will not use it again</t>
   </si>
   <si>
-    <t>travelchic06</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r193593973-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -712,17 +1022,14 @@
   </si>
   <si>
     <t>Upon arrival, the sheets were filthy and it was clearly evident that this room had not been properly serviced.   They had to move us out of our room into another room. 
-The next day, my card key to one of our rooms stopped working. My mother and I went to the front desk to get them fixed and the front desk clerk, Angela, fixed our keys and then we left to go get something down the street to eat for lunch. My phone rang and it was the front desk clerk, Angela who called and said, "Did you take a wallet from the from the lady that was checking in?" I told her no, I didn't even see a wallet. She said, that's fine that's why we have cameras to see what happened. I said that's fine. I didn't take anything. I do not steal and I don't like you accusing me a taking something. As soon as I got off the phone, the lady that was checking in while we were waiting in line to get our keys re-keyed, saw me and got out of the car yelling at me and cussing saying that, " I took her got damn wallet and that I needed to give her the wallet back. She said that the front desk clerk, Angela said she saw me take the wallet." I was sure that she did not see me take the wallet because...Upon arrival, the sheets were filthy and it was clearly evident that this room had not been properly serviced.   They had to move us out of our room into another room. The next day, my card key to one of our rooms stopped working. My mother and I went to the front desk to get them fixed and the front desk clerk, Angela, fixed our keys and then we left to go get something down the street to eat for lunch. My phone rang and it was the front desk clerk, Angela who called and said, "Did you take a wallet from the from the lady that was checking in?" I told her no, I didn't even see a wallet. She said, that's fine that's why we have cameras to see what happened. I said that's fine. I didn't take anything. I do not steal and I don't like you accusing me a taking something. As soon as I got off the phone, the lady that was checking in while we were waiting in line to get our keys re-keyed, saw me and got out of the car yelling at me and cussing saying that, " I took her got damn wallet and that I needed to give her the wallet back. She said that the front desk clerk, Angela said she saw me take the wallet." I was sure that she did not see me take the wallet because I didn’t even see a wallet. She said she was going to call the police and I told her to call them because I didn't take anything.  I proceeded to go into the restaurant to tell my mom and the lady followed me in there saying that the hotel clerk said we stole her wallet. We went back to the hotel and the hotel clerk, Angela said that they were waiting on the general manger to come so they could get the video.  The lady was in your lobby  yelling, screaming, cussing at me and my mother and the hotel clerk, just sat there and allowed that to happen in the establishment. My mom kept telling the hotel clerk that she needed to call the police to resolve this matter. Angela said that she was going to call the police and my mom told them to come to our room because we had to go get ready for graduation.  Also, she informed us that she had no capability of reviewing the cameras, but the manager would be on their way, and no one ever showed up.   I do not appreciate being humiliated and being labeled as a thief, and I had not taken anything from anyone.    I believe that the hotel representative added fuel to the fire when she made the accusations “that I saw her take the wallet.”  This is very serious and could have caused someone to get injured behind false accusations.  We didn't have time for...MoreShow less</t>
+The next day, my card key to one of our rooms stopped working. My mother and I went to the front desk to get them fixed and the front desk clerk, Angela, fixed our keys and then we left to go get something down the street to eat for lunch. My phone rang and it was the front desk clerk, Angela who called and said, "Did you take a wallet from the from the lady that was checking in?" I told her no, I didn't even see a wallet. She said, that's fine that's why we have cameras to see what happened. I said that's fine. I didn't take anything. I do not steal and I don't like you accusing me a taking something. As soon as I got off the phone, the lady that was checking in while we were waiting in line to get our keys re-keyed, saw me and got out of the car yelling at me and cussing saying that, " I took her got damn wallet and that I needed to give her the wallet back. She said that the front desk clerk, Angela said she saw me take the wallet." I was sure that she did not see me take the wallet because...Upon arrival, the sheets were filthy and it was clearly evident that this room had not been properly serviced.   They had to move us out of our room into another room. The next day, my card key to one of our rooms stopped working. My mother and I went to the front desk to get them fixed and the front desk clerk, Angela, fixed our keys and then we left to go get something down the street to eat for lunch. My phone rang and it was the front desk clerk, Angela who called and said, "Did you take a wallet from the from the lady that was checking in?" I told her no, I didn't even see a wallet. She said, that's fine that's why we have cameras to see what happened. I said that's fine. I didn't take anything. I do not steal and I don't like you accusing me a taking something. As soon as I got off the phone, the lady that was checking in while we were waiting in line to get our keys re-keyed, saw me and got out of the car yelling at me and cussing saying that, " I took her got damn wallet and that I needed to give her the wallet back. She said that the front desk clerk, Angela said she saw me take the wallet." I was sure that she did not see me take the wallet because I didn’t even see a wallet. She said she was going to call the police and I told her to call them because I didn't take anything.  I proceeded to go into the restaurant to tell my mom and the lady followed me in there saying that the hotel clerk said we stole her wallet. We went back to the hotel and the hotel clerk, Angela said that they were waiting on the general manger to come so they could get the video.  The lady was in your lobby  yelling, screaming, cussing at me and my mother and the hotel clerk, just sat there and allowed that to happen in the establishment. My mom kept telling the hotel clerk that she needed to call the police to resolve this matter. Angela said that she was going to call the police and my mom told them to come to our room because we had to go get ready for graduation.  Also, she informed us that she had no capability of reviewing the cameras, but the manager would be on their way, and no one ever showed up.   I do not appreciate being humiliated and being labeled as a thief, and I had not taken anything from anyone.    I believe that the hotel representative added fuel to the fire when she made the accusations “that I saw her take the wallet.”  This is very serious and could have caused someone to get injured behind false accusations.  We didn't have time for all of this nonsense and foolishness because we had to leaving for my sisters graduation.  My mom had to go back downstairs and the front desk lady, Angela apologized and said that she didn't see us take the wallet and remembered that we were nowhere near the lady. If Angela would not have accused us of "taking" the wallet then none of this would have happened. I guarantee that I will never ever stay at any Choice Hotel if this is the way that I will be treated.   We never saw Grand Prairie Police nor did we ever see a member of the management team.  The more I think about this it really infuriates me to be “lied on” and she (Angela) apologized to my mom but never to me.  I believe that my family’s personal safety was jeopardized and this whole situation could have ended unfortunately. Who’s to say what state of mind this barbaric lady was in.  She was pacing and it appeared that she was very upset.    Most people don’t take kindly to their personal possessions being stolen, and to have someone wrongfully accused could have gotten people hurt or killed.  Poor customer service on part of Angela was displayed.  I emailed the General Manager of this Comfort Suites and have yet to receive a response.  I guess they don't really care about the safety of the people saying at their establishment. When I contacted Choice Hotels to let them know about the situation, I was informed that the hotel is independently owned and operated and they couldn't do anything.  Wow!  I couldn't believe that.  How sad.  I will never stay at ANY Choice Hotel.  Poor Customer Service and Management!MoreShow less</t>
   </si>
   <si>
     <t>December 2013</t>
   </si>
   <si>
     <t>Upon arrival, the sheets were filthy and it was clearly evident that this room had not been properly serviced.   They had to move us out of our room into another room. 
-The next day, my card key to one of our rooms stopped working. My mother and I went to the front desk to get them fixed and the front desk clerk, Angela, fixed our keys and then we left to go get something down the street to eat for lunch. My phone rang and it was the front desk clerk, Angela who called and said, "Did you take a wallet from the from the lady that was checking in?" I told her no, I didn't even see a wallet. She said, that's fine that's why we have cameras to see what happened. I said that's fine. I didn't take anything. I do not steal and I don't like you accusing me a taking something. As soon as I got off the phone, the lady that was checking in while we were waiting in line to get our keys re-keyed, saw me and got out of the car yelling at me and cussing saying that, " I took her got damn wallet and that I needed to give her the wallet back. She said that the front desk clerk, Angela said she saw me take the wallet." I was sure that she did not see me take the wallet because...Upon arrival, the sheets were filthy and it was clearly evident that this room had not been properly serviced.   They had to move us out of our room into another room. The next day, my card key to one of our rooms stopped working. My mother and I went to the front desk to get them fixed and the front desk clerk, Angela, fixed our keys and then we left to go get something down the street to eat for lunch. My phone rang and it was the front desk clerk, Angela who called and said, "Did you take a wallet from the from the lady that was checking in?" I told her no, I didn't even see a wallet. She said, that's fine that's why we have cameras to see what happened. I said that's fine. I didn't take anything. I do not steal and I don't like you accusing me a taking something. As soon as I got off the phone, the lady that was checking in while we were waiting in line to get our keys re-keyed, saw me and got out of the car yelling at me and cussing saying that, " I took her got damn wallet and that I needed to give her the wallet back. She said that the front desk clerk, Angela said she saw me take the wallet." I was sure that she did not see me take the wallet because I didn’t even see a wallet. She said she was going to call the police and I told her to call them because I didn't take anything.  I proceeded to go into the restaurant to tell my mom and the lady followed me in there saying that the hotel clerk said we stole her wallet. We went back to the hotel and the hotel clerk, Angela said that they were waiting on the general manger to come so they could get the video.  The lady was in your lobby  yelling, screaming, cussing at me and my mother and the hotel clerk, just sat there and allowed that to happen in the establishment. My mom kept telling the hotel clerk that she needed to call the police to resolve this matter. Angela said that she was going to call the police and my mom told them to come to our room because we had to go get ready for graduation.  Also, she informed us that she had no capability of reviewing the cameras, but the manager would be on their way, and no one ever showed up.   I do not appreciate being humiliated and being labeled as a thief, and I had not taken anything from anyone.    I believe that the hotel representative added fuel to the fire when she made the accusations “that I saw her take the wallet.”  This is very serious and could have caused someone to get injured behind false accusations.  We didn't have time for...More</t>
-  </si>
-  <si>
-    <t>Dbuchic</t>
+The next day, my card key to one of our rooms stopped working. My mother and I went to the front desk to get them fixed and the front desk clerk, Angela, fixed our keys and then we left to go get something down the street to eat for lunch. My phone rang and it was the front desk clerk, Angela who called and said, "Did you take a wallet from the from the lady that was checking in?" I told her no, I didn't even see a wallet. She said, that's fine that's why we have cameras to see what happened. I said that's fine. I didn't take anything. I do not steal and I don't like you accusing me a taking something. As soon as I got off the phone, the lady that was checking in while we were waiting in line to get our keys re-keyed, saw me and got out of the car yelling at me and cussing saying that, " I took her got damn wallet and that I needed to give her the wallet back. She said that the front desk clerk, Angela said she saw me take the wallet." I was sure that she did not see me take the wallet because...Upon arrival, the sheets were filthy and it was clearly evident that this room had not been properly serviced.   They had to move us out of our room into another room. The next day, my card key to one of our rooms stopped working. My mother and I went to the front desk to get them fixed and the front desk clerk, Angela, fixed our keys and then we left to go get something down the street to eat for lunch. My phone rang and it was the front desk clerk, Angela who called and said, "Did you take a wallet from the from the lady that was checking in?" I told her no, I didn't even see a wallet. She said, that's fine that's why we have cameras to see what happened. I said that's fine. I didn't take anything. I do not steal and I don't like you accusing me a taking something. As soon as I got off the phone, the lady that was checking in while we were waiting in line to get our keys re-keyed, saw me and got out of the car yelling at me and cussing saying that, " I took her got damn wallet and that I needed to give her the wallet back. She said that the front desk clerk, Angela said she saw me take the wallet." I was sure that she did not see me take the wallet because I didn’t even see a wallet. She said she was going to call the police and I told her to call them because I didn't take anything.  I proceeded to go into the restaurant to tell my mom and the lady followed me in there saying that the hotel clerk said we stole her wallet. We went back to the hotel and the hotel clerk, Angela said that they were waiting on the general manger to come so they could get the video.  The lady was in your lobby  yelling, screaming, cussing at me and my mother and the hotel clerk, just sat there and allowed that to happen in the establishment. My mom kept telling the hotel clerk that she needed to call the police to resolve this matter. Angela said that she was going to call the police and my mom told them to come to our room because we had to go get ready for graduation.  Also, she informed us that she had no capability of reviewing the cameras, but the manager would be on their way, and no one ever showed up.   I do not appreciate being humiliated and being labeled as a thief, and I had not taken anything from anyone.    I believe that the hotel representative added fuel to the fire when she made the accusations “that I saw her take the wallet.”  This is very serious and could have caused someone to get injured behind false accusations.  We didn't have time for all of this nonsense and foolishness because we had to leaving for my sisters graduation.  My mom had to go back downstairs and the front desk lady, Angela apologized and said that she didn't see us take the wallet and remembered that we were nowhere near the lady. If Angela would not have accused us of "taking" the wallet then none of this would have happened. I guarantee that I will never ever stay at any Choice Hotel if this is the way that I will be treated.   We never saw Grand Prairie Police nor did we ever see a member of the management team.  The more I think about this it really infuriates me to be “lied on” and she (Angela) apologized to my mom but never to me.  I believe that my family’s personal safety was jeopardized and this whole situation could have ended unfortunately. Who’s to say what state of mind this barbaric lady was in.  She was pacing and it appeared that she was very upset.    Most people don’t take kindly to their personal possessions being stolen, and to have someone wrongfully accused could have gotten people hurt or killed.  Poor customer service on part of Angela was displayed.  I emailed the General Manager of this Comfort Suites and have yet to receive a response.  I guess they don't really care about the safety of the people saying at their establishment. When I contacted Choice Hotels to let them know about the situation, I was informed that the hotel is independently owned and operated and they couldn't do anything.  Wow!  I couldn't believe that.  How sad.  I will never stay at ANY Choice Hotel.  Poor Customer Service and Management!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r189079794-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
@@ -738,9 +1045,6 @@
   </si>
   <si>
     <t xml:space="preserve">I stayed here for my graduation. Had two rooms in which one had to be relocated due to red substance on sheets.  There was another incident where employee did not act with integrity or exhibit good customer service.  Save yourself headache and travel on across the highway.  Never again will I ever stay here or let any one I know stay there </t>
-  </si>
-  <si>
-    <t>TheCann0n</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r182446831-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
@@ -774,9 +1078,6 @@
 The problem with this hotel, it seems, is that should anything go wrong - will management be there to help you?  I had tried to contact management prior to my arrival to find out whether or not they'd hold a package for me.  No response...Let's start with the positives, and largely the reason that people would be reading this review.My check-in person was fantastic.  I was in much earlier than check-in time and she still found a spot for me despite the hotel being at capacity.  I know that was luck, too, but the point is that the check-in person did what she could to make it happen.The room itself was spacious and clean with good amenities.  Despite being right on the freeway, it was very quiet.  So quiet in fact that when I turned my A/C on, I could hear A/C from other rooms turning on.  As this was disturbing, I turned my fan on, and I was essentially shut out from noises coming from the outside world.Location is decent.  It's walking distance to a few restaurants.  Given that you are in the metroplex, it's certainly not close to everything, but you have to trade off whether or not it's close to the majority of the things that you want to do - and it was.  It's a short drive to Cowboys Stadium and the entertainment areas in Arlington.The breakfast was below-average but passable.The problem with this hotel, it seems, is that should anything go wrong - will management be there to help you?  I had tried to contact management prior to my arrival to find out whether or not they'd hold a package for me.  No response - I eventually had to phone to find out.Upon check-out, I find that the hotel charges a $1.50 safe fee per day.  Funny thing - I didn't even know that I had a safe, and I sure as heck didn't approve being charged for it.  I argued this after check-out.  The check-out person keeps me waiting for another 5 minutes as she fiddles with the computer, only to declare that the charge "should" now be reversed.  Well, it wasn't.  I was actually charged again.  So, now I'm contacting management and all I get back is another folio essentially confirming that I've now been double charged for what I shouldn't have been charged with in the first place.I'm not worried - I know that I'll eventually get my money back even if I have to charge them back through my credit card company.  Problem is that all of this could/should have been avoided - and regarding of eventual resolution, this is taking up my time that could be better used elsewhere.  So, despite a nice room and nice location - I cannot recommend this hotel, and I personally would not stay there again.  A safe charge - you've got to be kidding.More</t>
   </si>
   <si>
-    <t>18vivian18</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r167786292-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -795,7 +1096,265 @@
     <t>July 2013</t>
   </si>
   <si>
-    <t>Marcus9000</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r166122427-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>166122427</t>
+  </si>
+  <si>
+    <t>07/02/2013</t>
+  </si>
+  <si>
+    <t>This hotel double charges and refuses to refund your money.</t>
+  </si>
+  <si>
+    <t>We stayed here with our softball team. Our reservation was for 1 night only. They charged us for 2 nights. I called and emailed the manager Kirk for weeks and he NEVER returned any of my calls or emails. Very poor management!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r163496307-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>163496307</t>
+  </si>
+  <si>
+    <t>06/09/2013</t>
+  </si>
+  <si>
+    <t>Noisy and Average Service</t>
+  </si>
+  <si>
+    <t>My family and I  have stayed in other Comfort Suites in the past and this one was just O.K. If you need a place to stay between Fort Woth and Dallas, this one was clean and reasonable in price. I think that there was only one person working and it was hard to get towels or service.  The pizza place they recommended was O.K. but it took 1 hour for delivery. The breakfast was O.K.  It was also very noisy next to the interstate. I needed to use earplugs to sleep.  It wasn't bad, we have just stayed at nicer Comfort Suites.  I do not know if I would stay there again if I were to be back in that area again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>My family and I  have stayed in other Comfort Suites in the past and this one was just O.K. If you need a place to stay between Fort Woth and Dallas, this one was clean and reasonable in price. I think that there was only one person working and it was hard to get towels or service.  The pizza place they recommended was O.K. but it took 1 hour for delivery. The breakfast was O.K.  It was also very noisy next to the interstate. I needed to use earplugs to sleep.  It wasn't bad, we have just stayed at nicer Comfort Suites.  I do not know if I would stay there again if I were to be back in that area again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r160753810-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>160753810</t>
+  </si>
+  <si>
+    <t>05/14/2013</t>
+  </si>
+  <si>
+    <t>Ok choice for a place to sleep</t>
+  </si>
+  <si>
+    <t>We found this hotel looking for a place with reasonable rates relatively close to Cowboy Stadium.  This hotel was fine but is very close to the freeway which is busy at all hours.  This was an average hotel, clean and ok for just a place to sleep.  The best part of staying at this hotel was finding the nearby mexican restaurant.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r145318953-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>145318953</t>
+  </si>
+  <si>
+    <t>11/13/2012</t>
+  </si>
+  <si>
+    <t>not a hotel for repeat visit</t>
+  </si>
+  <si>
+    <t>Although we slept well and the facility was adequate, would not select it again.  Very close to I-20, small parking lot with commercial vehicles making parking tight.  Room small; one of beds was right by window.  Specify a room away from freeway.  Be aware that the owner of this Comfort hotel puts a room safe charge on your bill.  Will be taken off if you request.  A maintenance room on top floor near elevator was propped open with a trash can throughout our stay.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r140014506-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>140014506</t>
+  </si>
+  <si>
+    <t>09/11/2012</t>
+  </si>
+  <si>
+    <t>This hotel had hit breakfast internet a indoor pool nice rooms afforable</t>
+  </si>
+  <si>
+    <t>The staff was awesome front desk super jobs everything o needed i got it. Frendly staff housekeeking  i would stay here again . It right by alot of restrauts i loveI love comfort suites come and check this place out</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r139487456-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>139487456</t>
+  </si>
+  <si>
+    <t>09/05/2012</t>
+  </si>
+  <si>
+    <t>Mid Cities</t>
+  </si>
+  <si>
+    <t>Great Place to stay if you are busy in the mid-cities - whether Cowboys, Rangers, Six Flags, or anything else.  A little hard to get to, but other than that..very nice!  Great rooms, nice breakfast, and decent wifi.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r138792371-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>138792371</t>
+  </si>
+  <si>
+    <t>08/29/2012</t>
+  </si>
+  <si>
+    <t>A so-so stay.  Clean enough. Not real friendly.</t>
+  </si>
+  <si>
+    <t>Clean enough. Not too far to all the stadiums/six Flags, but there are SEVERAL highway transfers to get there.  Not 'just down the road', like I had hoped.  For the hot breakfast-eggs and biscuits and gravy only.  No meat at breakfast (bacon/sausage)Fresh fruit was not visibly appealing-spots, knicks, etc. Heard the front desk worker bragging to another worker that they had charged more money to a college-aged kid's room.  (maybe he deserved it...but with all the complaints I've seen on this hotel, you might wanna check your bill before you leave)  We personally had a fee for a safe that we did not use nor want.  When questioned about it, the front desk clerk removed the fee.  Said that we 'signed' for it when we checked in.  I recommend you read closely what you are signing.Front desk was not too friendly.  Also, they made me tell which room I was in, in order to get our extra bedding for the pull-out couch.  They put it in the computer before getting the bedding.  Maybe it is necessary? But it was a first for me.If in the area again, I would look for a different hotel, BUT if I could not find a better deal, I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean enough. Not too far to all the stadiums/six Flags, but there are SEVERAL highway transfers to get there.  Not 'just down the road', like I had hoped.  For the hot breakfast-eggs and biscuits and gravy only.  No meat at breakfast (bacon/sausage)Fresh fruit was not visibly appealing-spots, knicks, etc. Heard the front desk worker bragging to another worker that they had charged more money to a college-aged kid's room.  (maybe he deserved it...but with all the complaints I've seen on this hotel, you might wanna check your bill before you leave)  We personally had a fee for a safe that we did not use nor want.  When questioned about it, the front desk clerk removed the fee.  Said that we 'signed' for it when we checked in.  I recommend you read closely what you are signing.Front desk was not too friendly.  Also, they made me tell which room I was in, in order to get our extra bedding for the pull-out couch.  They put it in the computer before getting the bedding.  Maybe it is necessary? But it was a first for me.If in the area again, I would look for a different hotel, BUT if I could not find a better deal, I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r134716471-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>134716471</t>
+  </si>
+  <si>
+    <t>07/18/2012</t>
+  </si>
+  <si>
+    <t>In a good location</t>
+  </si>
+  <si>
+    <t>The hotel had great staff and was in a good location. Very close to many restaurants. Not far from Six Flags. The hotel smelled nice and was mostly clean. The bathroom was clean and beds. Before we left we always check under the beds for stuff we dropped and seen that no one had cleaned under the beds in a while. But overall it was good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r134232354-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>134232354</t>
+  </si>
+  <si>
+    <t>07/12/2012</t>
+  </si>
+  <si>
+    <t>EH</t>
+  </si>
+  <si>
+    <t>There were 2 fd agents and one seemed to be finishing up her paper work other was just there talking away while I was just standing there without getting a hello be right with you NOTHING!! Then I get to room and the bathroom was so dirty!!! I reqested to move room and made sure to check everything before kicking my shoes off. The elevator sounded like it was on its last ride just all around not wht I expected. I wont even say anything about check out!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r134035422-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>134035422</t>
+  </si>
+  <si>
+    <t>07/10/2012</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>This was very nice ,we were working nights and they gave us a room on the back side away from noise and activity they did not bother us so we had no problem sleeping days. The beds were comfortable  with fridge and microwave .The breakfast could have been better the eggs were awful but waffles were delicious and cereal good</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r133918268-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>133918268</t>
+  </si>
+  <si>
+    <t>07/09/2012</t>
+  </si>
+  <si>
+    <t>Not so suite!</t>
+  </si>
+  <si>
+    <t>First day we get there and pool is dirty. It smells like wet old rag. We tell the front desk and she has someone come empty the hot tub and refill it and says its becuse they have  had over 100 people in it over the weekend. So why not clean it before us telling her. The drains around the pool were full of hair. We got bit by ants that were all over the pool towels. Trash around the pool was there when we got there and 5days later when we left the trash was still there. Rooms had ants as well and trash behind the bed night stand. The front desk was also rude! Never stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>First day we get there and pool is dirty. It smells like wet old rag. We tell the front desk and she has someone come empty the hot tub and refill it and says its becuse they have  had over 100 people in it over the weekend. So why not clean it before us telling her. The drains around the pool were full of hair. We got bit by ants that were all over the pool towels. Trash around the pool was there when we got there and 5days later when we left the trash was still there. Rooms had ants as well and trash behind the bed night stand. The front desk was also rude! Never stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r133779440-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>133779440</t>
+  </si>
+  <si>
+    <t>07/08/2012</t>
+  </si>
+  <si>
+    <t>Multiple Disappointments</t>
+  </si>
+  <si>
+    <t>Upon arrival we were not greeted by front desk attendant. When we got to the room, we had a king size bed and called to request two double beds. They said they were full but that The couch folded out. They told us to send someone to get the linens. We felt that they should have sent someone with the linens. Then they didn't have anymore pillows. There was trash left in several places and used soap and shampoo in the shower. Upon departure, when discussing issues, the front desk clerk was at first apologetic, but became duragatory and very inprofessional. They also were not able to provide a printed receipt. MoreShow less</t>
+  </si>
+  <si>
+    <t>Upon arrival we were not greeted by front desk attendant. When we got to the room, we had a king size bed and called to request two double beds. They said they were full but that The couch folded out. They told us to send someone to get the linens. We felt that they should have sent someone with the linens. Then they didn't have anymore pillows. There was trash left in several places and used soap and shampoo in the shower. Upon departure, when discussing issues, the front desk clerk was at first apologetic, but became duragatory and very inprofessional. They also were not able to provide a printed receipt. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r133049504-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>133049504</t>
+  </si>
+  <si>
+    <t>06/29/2012</t>
+  </si>
+  <si>
+    <t>Excellent stay :)</t>
+  </si>
+  <si>
+    <t>Clean, quiet, excellent value, short drive to Cowboys stadium and all the other fun things in the area... what more can a person ask for?Friendly staff? They have that too! Will be back this fall without a doubt!</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r132783840-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>132783840</t>
+  </si>
+  <si>
+    <t>06/25/2012</t>
+  </si>
+  <si>
+    <t>Clean, comfortable &amp; convenient</t>
+  </si>
+  <si>
+    <t>My family &amp; I stayed 2-nights at the Comfort Suites in Grand Prairie in June.  We selected this hotel due to its proximity to Six Flags (approximately 15 minutes) &amp; visiting relatives, selecting it over the Comfort Suites property in Arlington based on a better rate.  Despite the hotel hosting a large family reunion &amp; being very booked &amp; busy, we enjoyed time in the pool, found the room to be clean,  comfortable &amp; the staff attentive to our needs.  The front desk personnel were attentive &amp; polite.  The breakfast was good as well.  You may read about the constant Interstate 20 noise in other reviews, and despite being in a room away from the highway, it is accurate that there is a near-constant hum of traffic.  It was not overwhelming &amp; did not interfere with our stay, but it is a fact.  The housekeeping staff was, likewise, attentive to our requests for additional towels, shampoo, etc...MoreShow less</t>
+  </si>
+  <si>
+    <t>My family &amp; I stayed 2-nights at the Comfort Suites in Grand Prairie in June.  We selected this hotel due to its proximity to Six Flags (approximately 15 minutes) &amp; visiting relatives, selecting it over the Comfort Suites property in Arlington based on a better rate.  Despite the hotel hosting a large family reunion &amp; being very booked &amp; busy, we enjoyed time in the pool, found the room to be clean,  comfortable &amp; the staff attentive to our needs.  The front desk personnel were attentive &amp; polite.  The breakfast was good as well.  You may read about the constant Interstate 20 noise in other reviews, and despite being in a room away from the highway, it is accurate that there is a near-constant hum of traffic.  It was not overwhelming &amp; did not interfere with our stay, but it is a fact.  The housekeeping staff was, likewise, attentive to our requests for additional towels, shampoo, etc...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r129624122-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>129624122</t>
+  </si>
+  <si>
+    <t>05/08/2012</t>
+  </si>
+  <si>
+    <t>Great quality - highway noise, though</t>
+  </si>
+  <si>
+    <t>The hotel was clean, very well kept, but the highway noise was a bit excessive.  The hotel is right along I-20, so the noise can be a bit much, but for a northeasterner like me, it wasnt a huge problem.  Location is alright, it is close to 6-flags and the sports stadiums, just it is a bit far from the downtown areas of FtW and Dallas.  Rooms are huge, bathroom was very nice, shower was big, but the wireless was bad.  I don't know if it was the router reception (I only got 2 out of 5 bars) or the connection to the outside world, but it was slow.   There is an ethernet port in the room, so I suggest bringing an ethernet cable if you are able as I'm under the impression that the router reception was the issue.  Breakfast is served early, 7-9, and being on vacation, sleeping in late didn't work with that, so I never got to try the breakfast.  Highly recommended if you can handle the noise of the traffic.  The AC units were a bit loud, but they do work in bleeding out the highway noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>The hotel was clean, very well kept, but the highway noise was a bit excessive.  The hotel is right along I-20, so the noise can be a bit much, but for a northeasterner like me, it wasnt a huge problem.  Location is alright, it is close to 6-flags and the sports stadiums, just it is a bit far from the downtown areas of FtW and Dallas.  Rooms are huge, bathroom was very nice, shower was big, but the wireless was bad.  I don't know if it was the router reception (I only got 2 out of 5 bars) or the connection to the outside world, but it was slow.   There is an ethernet port in the room, so I suggest bringing an ethernet cable if you are able as I'm under the impression that the router reception was the issue.  Breakfast is served early, 7-9, and being on vacation, sleeping in late didn't work with that, so I never got to try the breakfast.  Highly recommended if you can handle the noise of the traffic.  The AC units were a bit loud, but they do work in bleeding out the highway noise.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r129188136-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
@@ -813,19 +1372,25 @@
     <t>Stayed here during Deep South tour, starting in Dallas. Hotel was handy for the highways and also several restaurants nearby. Had to use Sat Nav to find it as you could miss it but it is on a major road.It is handy to see all the sites of Dallas, the Sixth Floor Museum is about 20 minutes downtown, and Six Flags isn't far away, nor is the sports stadia.Highly recommended.</t>
   </si>
   <si>
-    <t>chumleyetta</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r123850200-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
     <t>123850200</t>
   </si>
   <si>
-    <t>January 30, 2012</t>
-  </si>
-  <si>
-    <t>Food_man56</t>
+    <t>01/30/2012</t>
+  </si>
+  <si>
+    <t>Clean and convenient for us</t>
+  </si>
+  <si>
+    <t>We chose this hotel because it was close to our tournament location and we got a negotiated rate because of the number of rooms we booked. For this class hotel, I thought it was pretty clean and comfortable. The front dest staff was okay, I can't agree with other reviewers that say the staff was "very customer friendly", they did their job of checking in and checking out customers. I didn't eat at the breakfast area, but kids said wasn't very good. The room was nice sized for the four of us, beds were comfortable and housekeeping did a nice job each day. Had a fridge and coffe maker. It's right on the highway so can be noisy. We had a small fan so ran that all night and only had slight road noise so weren't bothered by it. Our room overlooked a car repair or tire place so we could hear that until they close, but not a big deal.  Overall, I would stay here again if in the area and got a good rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>We chose this hotel because it was close to our tournament location and we got a negotiated rate because of the number of rooms we booked. For this class hotel, I thought it was pretty clean and comfortable. The front dest staff was okay, I can't agree with other reviewers that say the staff was "very customer friendly", they did their job of checking in and checking out customers. I didn't eat at the breakfast area, but kids said wasn't very good. The room was nice sized for the four of us, beds were comfortable and housekeeping did a nice job each day. Had a fridge and coffe maker. It's right on the highway so can be noisy. We had a small fan so ran that all night and only had slight road noise so weren't bothered by it. Our room overlooked a car repair or tire place so we could hear that until they close, but not a big deal.  Overall, I would stay here again if in the area and got a good rate.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r121150469-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
@@ -834,7 +1399,16 @@
     <t>121150469</t>
   </si>
   <si>
-    <t>oldfirefighter83</t>
+    <t>11/28/2011</t>
+  </si>
+  <si>
+    <t>Wonderful Stay</t>
+  </si>
+  <si>
+    <t>Had a group of 47 here in November.  Exterior was well maintained.  Parking was very good.  Desk staff were very customer oriented.  Lobby nicely kept.  Rooms comfortable and very clean.  Free internet that worked good.  Only concern with this Inn was the breakfast selection.  Not much to offer for a mid-line Inn.  But I will be back.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r120584037-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
@@ -843,13 +1417,120 @@
     <t>120584037</t>
   </si>
   <si>
-    <t>RebeecaL</t>
+    <t>11/14/2011</t>
+  </si>
+  <si>
+    <t>Clean and Peacefully Quite</t>
+  </si>
+  <si>
+    <t>This hotel was very clean and quite. The bed room had a fridge &amp; coffee pot. but only 1 bag of coffee. Bathroom was very clean. Bottom line here is that the cleaning staff are really doing a great job.The parking area had plenty of lights at night time.But, the breakfast would have been better if they had kept the egg and cheese omelets hot and not ran out of syrup for the waffles.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r115201950-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
     <t>115201950</t>
+  </si>
+  <si>
+    <t>07/09/2011</t>
+  </si>
+  <si>
+    <t>NIce place to stay!  Great family trip.</t>
+  </si>
+  <si>
+    <t>My family of five stayed her for four days.  We got a very good rate and there is free breakfast every morning until 9 a.m.  It is about 10 minutes from Six Flags and 30 minutes from the American Girl Store, which were the reasons for our stay.  Our room was very clean.  The fold out couch is only a twin size bed, so just be prepared for that if you have more than five people.  The kids did have a nice time in the pool when we went in the morning.  It was a bit crowded at night.  There are lots of restaurants next door that we enjoyed trying.  All in all, a very nice stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>My family of five stayed her for four days.  We got a very good rate and there is free breakfast every morning until 9 a.m.  It is about 10 minutes from Six Flags and 30 minutes from the American Girl Store, which were the reasons for our stay.  Our room was very clean.  The fold out couch is only a twin size bed, so just be prepared for that if you have more than five people.  The kids did have a nice time in the pool when we went in the morning.  It was a bit crowded at night.  There are lots of restaurants next door that we enjoyed trying.  All in all, a very nice stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r115065772-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>115065772</t>
+  </si>
+  <si>
+    <t>07/05/2011</t>
+  </si>
+  <si>
+    <t>Not my first choice in the area..</t>
+  </si>
+  <si>
+    <t>I have stayed at many hotels in this general area..Although I don't have any major complaints, overall I believe the hotel is just average..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r81192971-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>81192971</t>
+  </si>
+  <si>
+    <t>09/27/2010</t>
+  </si>
+  <si>
+    <t>They Lie</t>
+  </si>
+  <si>
+    <t>My step father who is eighty-four lived in Texas for 52 years. He is now dialysis and requested that we make one last trip to his beloved state to visit old friends. The main reason we chose this hotel was that they advertise “Sorry-No Pets”. It was also near the clinic where he would receive his treatments.
+Upon arrival we were informed that hotel was booked due to a Dallas Cowboy’s game and a school soccer tournament. The accommodations were average and the staff polite.
+After driving for ten hours, unpacking for a week stay, we settled in for a hopefully a good night rest. The bed was a little soft for my comfort, but adequate. The first thing we noticed was the loud noise from the traffic on the interstate.
+The next problem we encounter was kids running down the hall and slamming doors. I arose and told them to clear the halls. One kid told me that the noise was coming from other kids that were supposed to be housed on the floor below and that he was out looking for his coach. I informed him that I would locate his coach by calling the front desk. Needless to say, it was a sleepless night.
+My step father was to receive dialysis the following day, so we arose early to have a quick breakfast and locate the clinic before his treatment. When the elevator doors opened, the first...My step father who is eighty-four lived in Texas for 52 years. He is now dialysis and requested that we make one last trip to his beloved state to visit old friends. The main reason we chose this hotel was that they advertise “Sorry-No Pets”. It was also near the clinic where he would receive his treatments. Upon arrival we were informed that hotel was booked due to a Dallas Cowboy’s game and a school soccer tournament. The accommodations were average and the staff polite.After driving for ten hours, unpacking for a week stay, we settled in for a hopefully a good night rest. The bed was a little soft for my comfort, but adequate. The first thing we noticed was the loud noise from the traffic on the interstate.The next problem we encounter was kids running down the hall and slamming doors. I arose and told them to clear the halls. One kid told me that the noise was coming from other kids that were supposed to be housed on the floor below and that he was out looking for his coach. I informed him that I would locate his coach by calling the front desk. Needless to say, it was a sleepless night.My step father was to receive dialysis the following day, so we arose early to have a quick breakfast and locate the clinic before his treatment. When the elevator doors opened, the first thing we saw was a couple with a pet on a leash. Knowing that people on dialysis must avoid pets due to hygiene, we immediately went to the front desk and ask why there was a pet in the hotel when they advertise, “Sorry-No Pets”?We were informed that an extra fee is charged for Pets. We explained that the advertisement “Sorry-No Pets” was the reason that we chose to stay at their facility. The clerk said she was sorry, but that was their policy. I wanted to move to another hotel, but my parents were tired from the trip and had just unpacked and felt at their age it was too much effort. They said we would just make the best of a bad situation. We went on to breakfast nothing to brag about. The following morning another couple brought their pet to breakfast with them. During our stay we encounter three pets at the hotel that advertises, “Sorry-No Pets”. I advised the staff that this review would be written.The printer did not work in the business center. We were also charged an extra $10.50 for an in room safe that was not used during our stay. Needless to say, I do not recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>My step father who is eighty-four lived in Texas for 52 years. He is now dialysis and requested that we make one last trip to his beloved state to visit old friends. The main reason we chose this hotel was that they advertise “Sorry-No Pets”. It was also near the clinic where he would receive his treatments.
+Upon arrival we were informed that hotel was booked due to a Dallas Cowboy’s game and a school soccer tournament. The accommodations were average and the staff polite.
+After driving for ten hours, unpacking for a week stay, we settled in for a hopefully a good night rest. The bed was a little soft for my comfort, but adequate. The first thing we noticed was the loud noise from the traffic on the interstate.
+The next problem we encounter was kids running down the hall and slamming doors. I arose and told them to clear the halls. One kid told me that the noise was coming from other kids that were supposed to be housed on the floor below and that he was out looking for his coach. I informed him that I would locate his coach by calling the front desk. Needless to say, it was a sleepless night.
+My step father was to receive dialysis the following day, so we arose early to have a quick breakfast and locate the clinic before his treatment. When the elevator doors opened, the first...My step father who is eighty-four lived in Texas for 52 years. He is now dialysis and requested that we make one last trip to his beloved state to visit old friends. The main reason we chose this hotel was that they advertise “Sorry-No Pets”. It was also near the clinic where he would receive his treatments. Upon arrival we were informed that hotel was booked due to a Dallas Cowboy’s game and a school soccer tournament. The accommodations were average and the staff polite.After driving for ten hours, unpacking for a week stay, we settled in for a hopefully a good night rest. The bed was a little soft for my comfort, but adequate. The first thing we noticed was the loud noise from the traffic on the interstate.The next problem we encounter was kids running down the hall and slamming doors. I arose and told them to clear the halls. One kid told me that the noise was coming from other kids that were supposed to be housed on the floor below and that he was out looking for his coach. I informed him that I would locate his coach by calling the front desk. Needless to say, it was a sleepless night.My step father was to receive dialysis the following day, so we arose early to have a quick breakfast and locate the clinic before his treatment. When the elevator doors opened, the first thing we saw was a couple with a pet on a leash. Knowing that people on dialysis must avoid pets due to hygiene, we immediately went to the front desk and ask why there was a pet in the hotel when they advertise, “Sorry-No Pets”?We were informed that an extra fee is charged for Pets. We explained that the advertisement “Sorry-No Pets” was the reason that we chose to stay at their facility. The clerk said she was sorry, but that was their policy. I wanted to move to another hotel, but my parents were tired from the trip and had just unpacked and felt at their age it was too much effort. They said we would just make the best of a bad situation. We went on to breakfast nothing to brag about. The following morning another couple brought their pet to breakfast with them. During our stay we encounter three pets at the hotel that advertises, “Sorry-No Pets”. I advised the staff that this review would be written.The printer did not work in the business center. We were also charged an extra $10.50 for an in room safe that was not used during our stay. Needless to say, I do not recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r77276438-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>77276438</t>
+  </si>
+  <si>
+    <t>08/28/2010</t>
+  </si>
+  <si>
+    <t>Very nice hotel, but very loud traffic. Not much sleep</t>
+  </si>
+  <si>
+    <t>This is a very very nice facility. Only 2 yrs old. very plush bedding, nice bldg, etc.  However, the traffic on the freeway just outside and the noise from the room air conditioners make sleeping soundly extremely difficult.  I was there last night and really didn't sleep much. The other party with me to whom I recommended the hotel because of the Choice brands, agreed.  The noise from the freeway is just unfortunate for such a nice facility but the noise from the air conditioners in a nice hotel is just poor poor planning. Add all of this on top of the attempted $75 deposit "for incidentals", i.e. we'll give it back to you if we feel like it,  at check in, just make this a stay way. It's unfortunate because it's such a nice place.  I wouldn't stay again. My sleep while traveling is too important to me.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>This is a very very nice facility. Only 2 yrs old. very plush bedding, nice bldg, etc.  However, the traffic on the freeway just outside and the noise from the room air conditioners make sleeping soundly extremely difficult.  I was there last night and really didn't sleep much. The other party with me to whom I recommended the hotel because of the Choice brands, agreed.  The noise from the freeway is just unfortunate for such a nice facility but the noise from the air conditioners in a nice hotel is just poor poor planning. Add all of this on top of the attempted $75 deposit "for incidentals", i.e. we'll give it back to you if we feel like it,  at check in, just make this a stay way. It's unfortunate because it's such a nice place.  I wouldn't stay again. My sleep while traveling is too important to me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d1163612-r60020318-Comfort_Suites_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>60020318</t>
+  </si>
+  <si>
+    <t>03/31/2010</t>
+  </si>
+  <si>
+    <t>Decent hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights.  New hotel.  Rooms were nice with two comfortable queen beds and pullout loveseat than makes a twin bed.  Refrigerator and microwave also. Bathroom was good also with decent lighting.   Good location with lots of restaurants in the area.  Easy to get to.  Was a bit noisy the first night due to a large amount of Asplundh workers staying there who left very, very early and tromped down the stairs and shouted to each other in the parking lot.  The second night was quiet.  Breakfast buffet was plain but adequate.  The usual fresh fruit, juice, coffee, cereal, yogurt, pastries, premade eggs, biscuits and gravy, and make your own waffles.  All in all a decent hotel for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights.  New hotel.  Rooms were nice with two comfortable queen beds and pullout loveseat than makes a twin bed.  Refrigerator and microwave also. Bathroom was good also with decent lighting.   Good location with lots of restaurants in the area.  Easy to get to.  Was a bit noisy the first night due to a large amount of Asplundh workers staying there who left very, very early and tromped down the stairs and shouted to each other in the parking lot.  The second night was quiet.  Breakfast buffet was plain but adequate.  The usual fresh fruit, juice, coffee, cereal, yogurt, pastries, premade eggs, biscuits and gravy, and make your own waffles.  All in all a decent hotel for the price.More</t>
   </si>
 </sst>
 </file>
@@ -1354,61 +2035,63 @@
       <c r="A2" t="n">
         <v>58417</v>
       </c>
-      <c r="B2" t="n">
-        <v>125450</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -1421,16 +2104,16 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
         <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
         <v>55</v>
@@ -1445,13 +2128,13 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1465,7 +2148,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -1478,16 +2161,16 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
         <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
         <v>61</v>
@@ -1502,25 +2185,25 @@
         <v>64</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
         <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1528,119 +2211,107 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>58417</v>
       </c>
-      <c r="B5" t="n">
-        <v>12756</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
         <v>67</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>69</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>65</v>
-      </c>
       <c r="O5" t="s">
-        <v>73</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>3</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>58417</v>
       </c>
-      <c r="B6" t="n">
-        <v>77229</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
         <v>75</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>76</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>77</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="K6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1654,54 +2325,50 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>58417</v>
       </c>
-      <c r="B7" t="n">
-        <v>125451</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
         <v>84</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="J7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>81</v>
-      </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1715,54 +2382,50 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>58417</v>
       </c>
-      <c r="B8" t="n">
-        <v>125452</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
         <v>90</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>91</v>
       </c>
-      <c r="J8" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L8" t="s">
-        <v>94</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>81</v>
-      </c>
       <c r="O8" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1776,116 +2439,108 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>58417</v>
       </c>
-      <c r="B9" t="n">
-        <v>8300</v>
-      </c>
-      <c r="C9" t="s">
-        <v>96</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>97</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="O9" t="s">
         <v>98</v>
-      </c>
-      <c r="J9" t="s">
-        <v>99</v>
-      </c>
-      <c r="K9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L9" t="s">
-        <v>101</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>81</v>
-      </c>
-      <c r="O9" t="s">
-        <v>82</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>4</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>58417</v>
       </c>
-      <c r="B10" t="n">
-        <v>125453</v>
-      </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
         <v>103</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>104</v>
       </c>
-      <c r="J10" t="s">
-        <v>105</v>
-      </c>
-      <c r="K10" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" t="s">
-        <v>107</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+      <c r="O10" t="s">
+        <v>98</v>
+      </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
@@ -1898,54 +2553,50 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>58417</v>
       </c>
-      <c r="B11" t="n">
-        <v>2424</v>
-      </c>
-      <c r="C11" t="s">
-        <v>108</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
         <v>109</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
         <v>110</v>
       </c>
-      <c r="J11" t="s">
-        <v>111</v>
-      </c>
-      <c r="K11" t="s">
-        <v>112</v>
-      </c>
-      <c r="L11" t="s">
-        <v>113</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>114</v>
-      </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1959,54 +2610,50 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>58417</v>
       </c>
-      <c r="B12" t="n">
-        <v>125454</v>
-      </c>
-      <c r="C12" t="s">
-        <v>115</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>116</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" t="s">
-        <v>118</v>
-      </c>
-      <c r="K12" t="s">
-        <v>119</v>
-      </c>
-      <c r="L12" t="s">
-        <v>120</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>121</v>
-      </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2020,131 +2667,119 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>58417</v>
       </c>
-      <c r="B13" t="n">
-        <v>27885</v>
-      </c>
-      <c r="C13" t="s">
-        <v>122</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="O13" t="s">
-        <v>95</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>58417</v>
       </c>
-      <c r="B14" t="n">
-        <v>125455</v>
-      </c>
-      <c r="C14" t="s">
-        <v>129</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2152,324 +2787,292 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>58417</v>
       </c>
-      <c r="B15" t="n">
-        <v>125456</v>
-      </c>
-      <c r="C15" t="s">
-        <v>136</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O15" t="s">
-        <v>95</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>58417</v>
       </c>
-      <c r="B16" t="n">
-        <v>125457</v>
-      </c>
-      <c r="C16" t="s">
-        <v>142</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="J16" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="K16" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="L16" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>58417</v>
       </c>
-      <c r="B17" t="n">
-        <v>125458</v>
-      </c>
-      <c r="C17" t="s">
-        <v>149</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="K17" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="L17" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="O17" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>4</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>58417</v>
       </c>
-      <c r="B18" t="n">
-        <v>125459</v>
-      </c>
-      <c r="C18" t="s">
-        <v>157</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K18" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="L18" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="O18" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>4</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>58417</v>
       </c>
-      <c r="B19" t="n">
-        <v>125460</v>
-      </c>
-      <c r="C19" t="s">
-        <v>164</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="J19" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="K19" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="L19" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>141</v>
+      </c>
+      <c r="O19" t="s">
+        <v>142</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
         <v>3</v>
       </c>
-      <c r="N19" t="s">
-        <v>163</v>
-      </c>
-      <c r="O19" t="s">
-        <v>73</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2477,464 +3080,410 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>58417</v>
       </c>
-      <c r="B20" t="n">
-        <v>125461</v>
-      </c>
-      <c r="C20" t="s">
-        <v>171</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="J20" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="K20" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="L20" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s"/>
       <c r="O20" t="s"/>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>58417</v>
       </c>
-      <c r="B21" t="n">
-        <v>125462</v>
-      </c>
-      <c r="C21" t="s">
-        <v>177</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="J21" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="K21" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="L21" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>1</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>58417</v>
       </c>
-      <c r="B22" t="n">
-        <v>125463</v>
-      </c>
-      <c r="C22" t="s">
-        <v>185</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="J22" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="K22" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="L22" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>174</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>58417</v>
       </c>
-      <c r="B23" t="n">
-        <v>125464</v>
-      </c>
-      <c r="C23" t="s">
-        <v>192</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="J23" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="K23" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="L23" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
       <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>58417</v>
       </c>
-      <c r="B24" t="n">
-        <v>125465</v>
-      </c>
-      <c r="C24" t="s">
-        <v>199</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="J24" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="K24" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="L24" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="O24" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>58417</v>
       </c>
-      <c r="B25" t="n">
-        <v>125466</v>
-      </c>
-      <c r="C25" t="s">
-        <v>205</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="J25" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="K25" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="L25" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>4</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>58417</v>
       </c>
-      <c r="B26" t="n">
-        <v>125467</v>
-      </c>
-      <c r="C26" t="s">
-        <v>212</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="J26" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="K26" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="L26" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="n">
-        <v>4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>4</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2942,70 +3491,62 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>58417</v>
       </c>
-      <c r="B27" t="n">
-        <v>125468</v>
-      </c>
-      <c r="C27" t="s">
-        <v>220</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="J27" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="K27" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="L27" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" t="n">
+        <v>52</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
         <v>3</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>3</v>
-      </c>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3013,70 +3554,62 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>58417</v>
       </c>
-      <c r="B28" t="n">
-        <v>125469</v>
-      </c>
-      <c r="C28" t="s">
-        <v>226</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="J28" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="K28" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="L28" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3084,137 +3617,117 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>58417</v>
       </c>
-      <c r="B29" t="n">
-        <v>125470</v>
-      </c>
-      <c r="C29" t="s">
-        <v>234</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="J29" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="K29" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="L29" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>203</v>
+      </c>
+      <c r="O29" t="s">
+        <v>98</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>1</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>58417</v>
       </c>
-      <c r="B30" t="n">
-        <v>125471</v>
-      </c>
-      <c r="C30" t="s">
-        <v>240</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="J30" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="K30" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="L30" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="O30" t="s">
-        <v>82</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3222,313 +3735,2884 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>58417</v>
       </c>
-      <c r="B31" t="n">
-        <v>125472</v>
-      </c>
-      <c r="C31" t="s">
-        <v>248</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="J31" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="K31" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>4</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>58417</v>
       </c>
-      <c r="B32" t="n">
-        <v>125473</v>
-      </c>
-      <c r="C32" t="s">
-        <v>255</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="J32" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="K32" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="L32" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>233</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>58417</v>
       </c>
-      <c r="B33" t="n">
-        <v>125474</v>
-      </c>
-      <c r="C33" t="s">
-        <v>261</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="J33" t="s">
-        <v>264</v>
-      </c>
-      <c r="K33" t="s"/>
-      <c r="L33" t="s"/>
-      <c r="M33" t="s"/>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
-      <c r="P33" t="s"/>
+        <v>237</v>
+      </c>
+      <c r="K33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L33" t="s">
+        <v>239</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>226</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
       <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>58417</v>
       </c>
-      <c r="B34" t="n">
-        <v>72562</v>
-      </c>
-      <c r="C34" t="s">
-        <v>265</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>267</v>
-      </c>
-      <c r="J34" t="s"/>
-      <c r="K34" t="s"/>
-      <c r="L34" t="s"/>
-      <c r="M34" t="s"/>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
+        <v>241</v>
+      </c>
+      <c r="J34" t="s">
+        <v>242</v>
+      </c>
+      <c r="K34" t="s">
+        <v>243</v>
+      </c>
+      <c r="L34" t="s">
+        <v>244</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>245</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>58417</v>
       </c>
-      <c r="B35" t="n">
-        <v>125475</v>
-      </c>
-      <c r="C35" t="s">
-        <v>268</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>270</v>
-      </c>
-      <c r="J35" t="s"/>
-      <c r="K35" t="s"/>
-      <c r="L35" t="s"/>
-      <c r="M35" t="s"/>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
+        <v>247</v>
+      </c>
+      <c r="J35" t="s">
+        <v>248</v>
+      </c>
+      <c r="K35" t="s">
+        <v>249</v>
+      </c>
+      <c r="L35" t="s">
+        <v>250</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>251</v>
+      </c>
+      <c r="O35" t="s">
+        <v>252</v>
+      </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="s"/>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
       <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
       <c r="V35" t="n">
         <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>58417</v>
       </c>
-      <c r="B36" t="n">
-        <v>125476</v>
-      </c>
-      <c r="C36" t="s">
-        <v>271</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>273</v>
-      </c>
-      <c r="J36" t="s"/>
-      <c r="K36" t="s"/>
-      <c r="L36" t="s"/>
-      <c r="M36" t="s"/>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="J36" t="s">
+        <v>255</v>
+      </c>
+      <c r="K36" t="s">
+        <v>256</v>
+      </c>
+      <c r="L36" t="s">
+        <v>257</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>258</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>260</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>261</v>
+      </c>
+      <c r="J37" t="s">
+        <v>262</v>
+      </c>
+      <c r="K37" t="s">
+        <v>263</v>
+      </c>
+      <c r="L37" t="s">
+        <v>264</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>251</v>
+      </c>
+      <c r="O37" t="s">
+        <v>98</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>267</v>
+      </c>
+      <c r="J38" t="s">
+        <v>268</v>
+      </c>
+      <c r="K38" t="s">
+        <v>269</v>
+      </c>
+      <c r="L38" t="s">
+        <v>270</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>271</v>
+      </c>
+      <c r="O38" t="s">
+        <v>142</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>272</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>273</v>
+      </c>
+      <c r="J39" t="s">
+        <v>274</v>
+      </c>
+      <c r="K39" t="s">
+        <v>275</v>
+      </c>
+      <c r="L39" t="s">
+        <v>276</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>271</v>
+      </c>
+      <c r="O39" t="s">
+        <v>98</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>278</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>279</v>
+      </c>
+      <c r="J40" t="s">
+        <v>280</v>
+      </c>
+      <c r="K40" t="s">
+        <v>281</v>
+      </c>
+      <c r="L40" t="s">
+        <v>282</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>283</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>284</v>
+      </c>
+      <c r="J41" t="s">
+        <v>285</v>
+      </c>
+      <c r="K41" t="s">
+        <v>286</v>
+      </c>
+      <c r="L41" t="s">
+        <v>287</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>288</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>290</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>291</v>
+      </c>
+      <c r="J42" t="s">
+        <v>292</v>
+      </c>
+      <c r="K42" t="s">
+        <v>293</v>
+      </c>
+      <c r="L42" t="s">
+        <v>294</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>296</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>297</v>
+      </c>
+      <c r="J43" t="s">
+        <v>298</v>
+      </c>
+      <c r="K43" t="s">
+        <v>299</v>
+      </c>
+      <c r="L43" t="s">
+        <v>300</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>301</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>302</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>303</v>
+      </c>
+      <c r="J44" t="s">
+        <v>304</v>
+      </c>
+      <c r="K44" t="s">
+        <v>305</v>
+      </c>
+      <c r="L44" t="s">
+        <v>306</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>301</v>
+      </c>
+      <c r="O44" t="s">
+        <v>66</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>307</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>308</v>
+      </c>
+      <c r="J45" t="s">
+        <v>309</v>
+      </c>
+      <c r="K45" t="s">
+        <v>310</v>
+      </c>
+      <c r="L45" t="s">
+        <v>311</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>312</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>313</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>314</v>
+      </c>
+      <c r="J46" t="s">
+        <v>315</v>
+      </c>
+      <c r="K46" t="s">
+        <v>316</v>
+      </c>
+      <c r="L46" t="s">
+        <v>317</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>318</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>320</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>321</v>
+      </c>
+      <c r="J47" t="s">
+        <v>322</v>
+      </c>
+      <c r="K47" t="s">
+        <v>323</v>
+      </c>
+      <c r="L47" t="s">
+        <v>324</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>318</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>325</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>326</v>
+      </c>
+      <c r="J48" t="s">
+        <v>327</v>
+      </c>
+      <c r="K48" t="s">
+        <v>328</v>
+      </c>
+      <c r="L48" t="s">
+        <v>329</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>330</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>332</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>333</v>
+      </c>
+      <c r="J49" t="s">
+        <v>334</v>
+      </c>
+      <c r="K49" t="s">
+        <v>335</v>
+      </c>
+      <c r="L49" t="s">
+        <v>336</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>337</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>338</v>
+      </c>
+      <c r="J50" t="s">
+        <v>339</v>
+      </c>
+      <c r="K50" t="s">
+        <v>340</v>
+      </c>
+      <c r="L50" t="s">
+        <v>341</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>342</v>
+      </c>
+      <c r="O50" t="s">
+        <v>142</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>344</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>345</v>
+      </c>
+      <c r="J51" t="s">
+        <v>346</v>
+      </c>
+      <c r="K51" t="s">
+        <v>347</v>
+      </c>
+      <c r="L51" t="s">
+        <v>348</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>349</v>
+      </c>
+      <c r="O51" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>351</v>
+      </c>
+      <c r="J52" t="s">
+        <v>352</v>
+      </c>
+      <c r="K52" t="s">
+        <v>353</v>
+      </c>
+      <c r="L52" t="s">
+        <v>354</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>355</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>356</v>
+      </c>
+      <c r="J53" t="s">
+        <v>357</v>
+      </c>
+      <c r="K53" t="s">
+        <v>358</v>
+      </c>
+      <c r="L53" t="s">
+        <v>359</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>360</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>362</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>363</v>
+      </c>
+      <c r="J54" t="s">
+        <v>364</v>
+      </c>
+      <c r="K54" t="s">
+        <v>365</v>
+      </c>
+      <c r="L54" t="s">
+        <v>366</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>367</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>368</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>369</v>
+      </c>
+      <c r="J55" t="s">
+        <v>370</v>
+      </c>
+      <c r="K55" t="s">
+        <v>371</v>
+      </c>
+      <c r="L55" t="s">
+        <v>372</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>373</v>
+      </c>
+      <c r="O55" t="s">
+        <v>98</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>374</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>375</v>
+      </c>
+      <c r="J56" t="s">
+        <v>376</v>
+      </c>
+      <c r="K56" t="s">
+        <v>377</v>
+      </c>
+      <c r="L56" t="s">
+        <v>378</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>379</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>380</v>
+      </c>
+      <c r="J57" t="s">
+        <v>381</v>
+      </c>
+      <c r="K57" t="s">
+        <v>382</v>
+      </c>
+      <c r="L57" t="s">
+        <v>383</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>384</v>
+      </c>
+      <c r="O57" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>385</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>386</v>
+      </c>
+      <c r="J58" t="s">
+        <v>387</v>
+      </c>
+      <c r="K58" t="s">
+        <v>388</v>
+      </c>
+      <c r="L58" t="s">
+        <v>389</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>384</v>
+      </c>
+      <c r="O58" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>391</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>392</v>
+      </c>
+      <c r="J59" t="s">
+        <v>393</v>
+      </c>
+      <c r="K59" t="s">
+        <v>394</v>
+      </c>
+      <c r="L59" t="s">
+        <v>395</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>396</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>397</v>
+      </c>
+      <c r="J60" t="s">
+        <v>398</v>
+      </c>
+      <c r="K60" t="s">
+        <v>399</v>
+      </c>
+      <c r="L60" t="s">
+        <v>400</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>367</v>
+      </c>
+      <c r="O60" t="s">
+        <v>98</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>401</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>402</v>
+      </c>
+      <c r="J61" t="s">
+        <v>403</v>
+      </c>
+      <c r="K61" t="s">
+        <v>404</v>
+      </c>
+      <c r="L61" t="s">
+        <v>405</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>367</v>
+      </c>
+      <c r="O61" t="s">
+        <v>66</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>406</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>407</v>
+      </c>
+      <c r="J62" t="s">
+        <v>408</v>
+      </c>
+      <c r="K62" t="s">
+        <v>409</v>
+      </c>
+      <c r="L62" t="s">
+        <v>410</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>412</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>413</v>
+      </c>
+      <c r="J63" t="s">
+        <v>414</v>
+      </c>
+      <c r="K63" t="s">
+        <v>415</v>
+      </c>
+      <c r="L63" t="s">
+        <v>416</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>418</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>419</v>
+      </c>
+      <c r="J64" t="s">
+        <v>420</v>
+      </c>
+      <c r="K64" t="s">
+        <v>421</v>
+      </c>
+      <c r="L64" t="s">
+        <v>422</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>423</v>
+      </c>
+      <c r="O64" t="s">
+        <v>52</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>424</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>425</v>
+      </c>
+      <c r="J65" t="s">
+        <v>426</v>
+      </c>
+      <c r="K65" t="s">
+        <v>427</v>
+      </c>
+      <c r="L65" t="s">
+        <v>428</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>367</v>
+      </c>
+      <c r="O65" t="s">
+        <v>52</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>430</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>431</v>
+      </c>
+      <c r="J66" t="s">
+        <v>432</v>
+      </c>
+      <c r="K66" t="s">
+        <v>433</v>
+      </c>
+      <c r="L66" t="s">
+        <v>434</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>435</v>
+      </c>
+      <c r="O66" t="s">
+        <v>252</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>437</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>438</v>
+      </c>
+      <c r="J67" t="s">
+        <v>439</v>
+      </c>
+      <c r="K67" t="s">
+        <v>440</v>
+      </c>
+      <c r="L67" t="s">
+        <v>441</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>442</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>443</v>
+      </c>
+      <c r="J68" t="s">
+        <v>444</v>
+      </c>
+      <c r="K68" t="s">
+        <v>445</v>
+      </c>
+      <c r="L68" t="s">
+        <v>446</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>447</v>
+      </c>
+      <c r="O68" t="s">
+        <v>52</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>449</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>450</v>
+      </c>
+      <c r="J69" t="s">
+        <v>451</v>
+      </c>
+      <c r="K69" t="s">
+        <v>452</v>
+      </c>
+      <c r="L69" t="s">
+        <v>453</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>454</v>
+      </c>
+      <c r="O69" t="s">
+        <v>66</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>455</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>456</v>
+      </c>
+      <c r="J70" t="s">
+        <v>457</v>
+      </c>
+      <c r="K70" t="s">
+        <v>458</v>
+      </c>
+      <c r="L70" t="s">
+        <v>459</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>454</v>
+      </c>
+      <c r="O70" t="s">
+        <v>66</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>460</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>461</v>
+      </c>
+      <c r="J71" t="s">
+        <v>462</v>
+      </c>
+      <c r="K71" t="s">
+        <v>463</v>
+      </c>
+      <c r="L71" t="s">
+        <v>464</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>465</v>
+      </c>
+      <c r="O71" t="s">
+        <v>52</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>467</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>468</v>
+      </c>
+      <c r="J72" t="s">
+        <v>469</v>
+      </c>
+      <c r="K72" t="s">
+        <v>470</v>
+      </c>
+      <c r="L72" t="s">
+        <v>471</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>472</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>473</v>
+      </c>
+      <c r="J73" t="s">
+        <v>474</v>
+      </c>
+      <c r="K73" t="s">
+        <v>475</v>
+      </c>
+      <c r="L73" t="s">
+        <v>476</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>477</v>
+      </c>
+      <c r="O73" t="s">
+        <v>52</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>479</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>480</v>
+      </c>
+      <c r="J74" t="s">
+        <v>481</v>
+      </c>
+      <c r="K74" t="s">
+        <v>482</v>
+      </c>
+      <c r="L74" t="s">
+        <v>483</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>484</v>
+      </c>
+      <c r="O74" t="s">
+        <v>66</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>58417</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>486</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>487</v>
+      </c>
+      <c r="J75" t="s">
+        <v>488</v>
+      </c>
+      <c r="K75" t="s">
+        <v>489</v>
+      </c>
+      <c r="L75" t="s">
+        <v>490</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>491</v>
+      </c>
+      <c r="O75" t="s">
+        <v>52</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>492</v>
       </c>
     </row>
   </sheetData>
